--- a/carriers_source_analyses/manure.carrier.xlsx
+++ b/carriers_source_analyses/manure.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
   <si>
     <t>Source</t>
   </si>
@@ -315,6 +315,80 @@
   </si>
   <si>
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>gas biomass</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>potential_co2_conversion_per_mj</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
   </si>
 </sst>
 </file>
@@ -327,12 +401,33 @@
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -513,6 +608,30 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -870,568 +989,606 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="335">
+  <cellStyleXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="335">
+  <cellStyles count="338">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1677,6 +1834,9 @@
     <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1968,6 +2128,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>27056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8064500" y="109283500"/>
+          <a:ext cx="9779000" cy="7556500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2090,6 +2288,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2097,6 +2296,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2632,7 +2832,7 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2658,28 +2858,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="136"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -2817,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="104" t="s">
+      <c r="G13" s="131" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="30"/>
@@ -2826,16 +3026,38 @@
       </c>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+    <row r="14" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="153">
+        <f>'Research data'!G10</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="165" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2888,10 +3110,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q10"/>
+  <dimension ref="B1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2910,14 +3132,14 @@
     <col min="12" max="12" width="3.25" style="66" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
     <col min="14" max="14" width="2.75" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="66" customWidth="1"/>
-    <col min="17" max="17" width="60" style="65" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="65"/>
+    <col min="15" max="16" width="8.5" style="66" customWidth="1"/>
+    <col min="17" max="17" width="2.75" style="66" customWidth="1"/>
+    <col min="18" max="18" width="60" style="65" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:18" ht="16" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -2933,9 +3155,10 @@
       <c r="N2" s="69"/>
       <c r="O2" s="69"/>
       <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
-    </row>
-    <row r="3" spans="2:17" s="24" customFormat="1">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+    </row>
+    <row r="3" spans="2:18" s="24" customFormat="1">
       <c r="B3" s="23"/>
       <c r="C3" s="97" t="s">
         <v>29</v>
@@ -2964,12 +3187,15 @@
       <c r="O3" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -2984,10 +3210,11 @@
       <c r="M4" s="94"/>
       <c r="N4" s="96"/>
       <c r="O4" s="94"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+      <c r="P4" s="94"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" thickBot="1">
       <c r="B5" s="71"/>
       <c r="C5" s="18" t="s">
         <v>49</v>
@@ -3005,9 +3232,10 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="2:18" ht="16" thickBot="1">
       <c r="B6" s="71"/>
       <c r="C6" s="107" t="s">
         <v>36</v>
@@ -3033,9 +3261,10 @@
       <c r="N6" s="17"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="108" t="s">
         <v>37</v>
@@ -3062,9 +3291,10 @@
       <c r="N7" s="17"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="112"/>
-    </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="112"/>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="108" t="s">
         <v>86</v>
@@ -3094,11 +3324,12 @@
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="121" t="s">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="121" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="109" t="s">
         <v>38</v>
@@ -3124,33 +3355,68 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
-      <c r="B10" s="71"/>
-      <c r="C10" s="109" t="s">
-        <v>39</v>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="133" t="s">
+        <v>93</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="75"/>
+        <v>44</v>
+      </c>
+      <c r="G10" s="153">
+        <f>P10</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="122"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="119"/>
+      <c r="P10" s="163">
+        <f>Notes!G115</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="2:18" ht="16" thickBot="1">
+      <c r="B11" s="71"/>
+      <c r="C11" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3168,9 +3434,11 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3187,8 +3455,8 @@
     <col min="13" max="16384" width="33.125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="1:12" ht="16" thickBot="1"/>
+    <row r="2" spans="1:12">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3201,7 +3469,7 @@
       <c r="K2" s="49"/>
       <c r="L2" s="48"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="1:12">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>10</v>
@@ -3216,7 +3484,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:12">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3229,7 +3497,7 @@
       <c r="K4" s="54"/>
       <c r="L4" s="53"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="1:12">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>12</v>
@@ -3258,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:12">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -3271,7 +3539,7 @@
       <c r="K6" s="52"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="2:12" ht="16">
+    <row r="7" spans="1:12" ht="16">
       <c r="B7" s="50"/>
       <c r="C7" s="117" t="s">
         <v>86</v>
@@ -3298,19 +3566,31 @@
       </c>
       <c r="L7" s="115"/>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="50"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="L8" s="64"/>
-    </row>
-    <row r="9" spans="2:12">
+    <row r="8" spans="1:12">
+      <c r="A8" s="148"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="E8" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="139"/>
+      <c r="G8" s="148" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="151" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="164" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="152"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="50"/>
       <c r="C9" s="117"/>
       <c r="D9" s="59"/>
@@ -3322,7 +3602,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="64"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:12">
       <c r="B10" s="50"/>
       <c r="C10" s="117"/>
       <c r="D10" s="59"/>
@@ -3335,7 +3615,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="2:12" ht="16">
+    <row r="11" spans="1:12" ht="16">
       <c r="B11" s="50"/>
       <c r="C11" s="117"/>
       <c r="D11" s="62"/>
@@ -3361,9 +3641,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y80"/>
+  <dimension ref="B1:AI126"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A99" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD126"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5221,7 +5503,7 @@
       <c r="T79" s="110"/>
       <c r="U79" s="110"/>
     </row>
-    <row r="80" spans="2:21" customFormat="1" ht="16">
+    <row r="80" spans="2:21" customFormat="1" ht="17" thickBot="1">
       <c r="B80" s="100"/>
       <c r="C80" s="110"/>
       <c r="D80" s="110"/>
@@ -5243,6 +5525,1686 @@
       <c r="T80" s="110"/>
       <c r="U80" s="110"/>
     </row>
+    <row r="81" spans="2:35" s="137" customFormat="1">
+      <c r="B81" s="134"/>
+      <c r="C81" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="135"/>
+      <c r="H81" s="135"/>
+      <c r="I81" s="135"/>
+      <c r="J81" s="135"/>
+      <c r="K81" s="135"/>
+      <c r="L81" s="135"/>
+      <c r="M81" s="135"/>
+      <c r="N81" s="135"/>
+      <c r="O81" s="135"/>
+      <c r="P81" s="135"/>
+      <c r="Q81" s="135"/>
+      <c r="R81" s="135"/>
+      <c r="S81" s="135"/>
+      <c r="T81" s="135"/>
+      <c r="U81" s="135"/>
+      <c r="V81" s="136"/>
+      <c r="W81" s="136"/>
+      <c r="X81" s="136"/>
+      <c r="Y81" s="136"/>
+      <c r="Z81" s="136"/>
+      <c r="AA81" s="136"/>
+      <c r="AB81" s="136"/>
+      <c r="AC81" s="136"/>
+      <c r="AD81" s="136"/>
+      <c r="AE81" s="136"/>
+      <c r="AF81" s="136"/>
+      <c r="AG81" s="136"/>
+      <c r="AH81" s="136"/>
+      <c r="AI81" s="136"/>
+    </row>
+    <row r="82" spans="2:35" s="137" customFormat="1">
+      <c r="B82" s="138"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
+      <c r="J82" s="139"/>
+      <c r="K82" s="139"/>
+      <c r="L82" s="139"/>
+      <c r="M82" s="139"/>
+      <c r="N82" s="139"/>
+      <c r="O82" s="139"/>
+      <c r="P82" s="139"/>
+      <c r="Q82" s="139"/>
+      <c r="R82" s="139"/>
+      <c r="S82" s="139"/>
+      <c r="T82" s="139"/>
+      <c r="U82" s="139"/>
+      <c r="V82" s="139"/>
+      <c r="W82" s="139"/>
+      <c r="X82" s="139"/>
+      <c r="Y82" s="139"/>
+      <c r="Z82" s="139"/>
+      <c r="AA82" s="139"/>
+      <c r="AB82" s="139"/>
+      <c r="AC82" s="139"/>
+      <c r="AD82" s="139"/>
+      <c r="AE82" s="139"/>
+      <c r="AF82" s="139"/>
+      <c r="AG82" s="139"/>
+      <c r="AH82" s="139"/>
+      <c r="AI82" s="139"/>
+    </row>
+    <row r="83" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B83" s="138"/>
+      <c r="C83" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="141"/>
+      <c r="E83" s="141"/>
+      <c r="F83" s="141"/>
+      <c r="G83" s="141"/>
+      <c r="H83" s="141"/>
+      <c r="I83" s="141"/>
+      <c r="J83" s="110"/>
+      <c r="K83" s="110"/>
+      <c r="L83" s="110"/>
+      <c r="M83" s="110"/>
+      <c r="N83" s="110"/>
+      <c r="O83" s="110"/>
+      <c r="P83" s="110"/>
+      <c r="Q83" s="110"/>
+      <c r="R83" s="110"/>
+      <c r="S83" s="110"/>
+      <c r="T83" s="110"/>
+      <c r="U83" s="110"/>
+      <c r="V83" s="110"/>
+      <c r="W83" s="110"/>
+      <c r="X83" s="110"/>
+      <c r="Y83" s="110"/>
+      <c r="Z83" s="142"/>
+      <c r="AA83" s="142"/>
+      <c r="AB83" s="142"/>
+      <c r="AC83" s="142"/>
+      <c r="AD83" s="142"/>
+      <c r="AE83" s="142"/>
+      <c r="AF83" s="142"/>
+      <c r="AG83" s="142"/>
+      <c r="AH83" s="142"/>
+      <c r="AI83" s="142"/>
+    </row>
+    <row r="84" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B84" s="138"/>
+      <c r="C84" s="141"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="141"/>
+      <c r="F84" s="141"/>
+      <c r="G84" s="141"/>
+      <c r="H84" s="141"/>
+      <c r="I84" s="141"/>
+      <c r="J84" s="110"/>
+      <c r="K84" s="110"/>
+      <c r="L84" s="110"/>
+      <c r="M84" s="110"/>
+      <c r="N84" s="110"/>
+      <c r="O84" s="110"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="110"/>
+      <c r="R84" s="110"/>
+      <c r="S84" s="110"/>
+      <c r="T84" s="110"/>
+      <c r="U84" s="110"/>
+      <c r="V84" s="110"/>
+      <c r="W84" s="110"/>
+      <c r="X84" s="110"/>
+      <c r="Y84" s="110"/>
+      <c r="Z84" s="142"/>
+      <c r="AA84" s="142"/>
+      <c r="AB84" s="142"/>
+      <c r="AC84" s="142"/>
+      <c r="AD84" s="142"/>
+      <c r="AE84" s="142"/>
+      <c r="AF84" s="142"/>
+      <c r="AG84" s="142"/>
+      <c r="AH84" s="142"/>
+      <c r="AI84" s="142"/>
+    </row>
+    <row r="85" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B85" s="138"/>
+      <c r="C85" s="141"/>
+      <c r="D85" s="141"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="141"/>
+      <c r="H85" s="141"/>
+      <c r="I85" s="141"/>
+      <c r="J85" s="110"/>
+      <c r="K85" s="110"/>
+      <c r="L85" s="110"/>
+      <c r="M85" s="110"/>
+      <c r="N85" s="110"/>
+      <c r="O85" s="110"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="110"/>
+      <c r="R85" s="110"/>
+      <c r="S85" s="110"/>
+      <c r="T85" s="110"/>
+      <c r="U85" s="110"/>
+      <c r="V85" s="110"/>
+      <c r="W85" s="110"/>
+      <c r="X85" s="110"/>
+      <c r="Y85" s="110"/>
+      <c r="Z85" s="142"/>
+      <c r="AA85" s="142"/>
+      <c r="AB85" s="142"/>
+      <c r="AC85" s="142"/>
+      <c r="AD85" s="142"/>
+      <c r="AE85" s="142"/>
+      <c r="AF85" s="142"/>
+      <c r="AG85" s="142"/>
+      <c r="AH85" s="142"/>
+      <c r="AI85" s="142"/>
+    </row>
+    <row r="86" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B86" s="138"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="143"/>
+      <c r="H86" s="143"/>
+      <c r="I86" s="143"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="110"/>
+      <c r="L86" s="110"/>
+      <c r="M86" s="110"/>
+      <c r="N86" s="110"/>
+      <c r="O86" s="110"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="110"/>
+      <c r="R86" s="110"/>
+      <c r="S86" s="110"/>
+      <c r="T86" s="110"/>
+      <c r="U86" s="110"/>
+      <c r="V86" s="110"/>
+      <c r="W86" s="110"/>
+      <c r="X86" s="110"/>
+      <c r="Y86" s="110"/>
+      <c r="Z86" s="142"/>
+      <c r="AA86" s="142"/>
+      <c r="AB86" s="142"/>
+      <c r="AC86" s="142"/>
+      <c r="AD86" s="142"/>
+      <c r="AE86" s="142"/>
+      <c r="AF86" s="142"/>
+      <c r="AG86" s="142"/>
+      <c r="AH86" s="142"/>
+      <c r="AI86" s="142"/>
+    </row>
+    <row r="87" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B87" s="138"/>
+      <c r="C87" s="143"/>
+      <c r="D87" s="143"/>
+      <c r="E87" s="143"/>
+      <c r="F87" s="143"/>
+      <c r="G87" s="143"/>
+      <c r="H87" s="143"/>
+      <c r="I87" s="143"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="110"/>
+      <c r="L87" s="110"/>
+      <c r="M87" s="110"/>
+      <c r="N87" s="110"/>
+      <c r="O87" s="110"/>
+      <c r="P87" s="110"/>
+      <c r="Q87" s="110"/>
+      <c r="R87" s="110"/>
+      <c r="S87" s="110"/>
+      <c r="T87" s="110"/>
+      <c r="U87" s="110"/>
+      <c r="V87" s="110"/>
+      <c r="W87" s="110"/>
+      <c r="X87" s="110"/>
+      <c r="Y87" s="110"/>
+      <c r="Z87" s="142"/>
+      <c r="AA87" s="142"/>
+      <c r="AB87" s="142"/>
+      <c r="AC87" s="142"/>
+      <c r="AD87" s="142"/>
+      <c r="AE87" s="142"/>
+      <c r="AF87" s="142"/>
+      <c r="AG87" s="142"/>
+      <c r="AH87" s="142"/>
+      <c r="AI87" s="142"/>
+    </row>
+    <row r="88" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B88" s="138"/>
+      <c r="C88" s="143"/>
+      <c r="D88" s="145"/>
+      <c r="E88" s="145"/>
+      <c r="F88" s="145"/>
+      <c r="G88" s="145"/>
+      <c r="H88" s="145"/>
+      <c r="I88" s="145"/>
+      <c r="J88" s="144"/>
+      <c r="K88" s="110"/>
+      <c r="L88" s="110"/>
+      <c r="M88" s="110"/>
+      <c r="N88" s="110"/>
+      <c r="O88" s="110"/>
+      <c r="P88" s="110"/>
+      <c r="Q88" s="110"/>
+      <c r="R88" s="110"/>
+      <c r="S88" s="110"/>
+      <c r="T88" s="110"/>
+      <c r="U88" s="110"/>
+      <c r="V88" s="110"/>
+      <c r="W88" s="110"/>
+      <c r="X88" s="110"/>
+      <c r="Y88" s="110"/>
+      <c r="Z88" s="142"/>
+      <c r="AA88" s="142"/>
+      <c r="AB88" s="142"/>
+      <c r="AC88" s="142"/>
+      <c r="AD88" s="142"/>
+      <c r="AE88" s="142"/>
+      <c r="AF88" s="142"/>
+      <c r="AG88" s="142"/>
+      <c r="AH88" s="142"/>
+      <c r="AI88" s="142"/>
+    </row>
+    <row r="89" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B89" s="138"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="145"/>
+      <c r="E89" s="145"/>
+      <c r="F89" s="145"/>
+      <c r="G89" s="145"/>
+      <c r="H89" s="145"/>
+      <c r="I89" s="143"/>
+      <c r="J89" s="144"/>
+      <c r="K89" s="110"/>
+      <c r="L89" s="110"/>
+      <c r="M89" s="110"/>
+      <c r="N89" s="110"/>
+      <c r="O89" s="110"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="110"/>
+      <c r="R89" s="110"/>
+      <c r="S89" s="110"/>
+      <c r="T89" s="110"/>
+      <c r="U89" s="110"/>
+      <c r="V89" s="110"/>
+      <c r="W89" s="110"/>
+      <c r="X89" s="110"/>
+      <c r="Y89" s="110"/>
+      <c r="Z89" s="142"/>
+      <c r="AA89" s="142"/>
+      <c r="AB89" s="142"/>
+      <c r="AC89" s="142"/>
+      <c r="AD89" s="142"/>
+      <c r="AE89" s="142"/>
+      <c r="AF89" s="142"/>
+      <c r="AG89" s="142"/>
+      <c r="AH89" s="142"/>
+      <c r="AI89" s="142"/>
+    </row>
+    <row r="90" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B90" s="138"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="145"/>
+      <c r="E90" s="145"/>
+      <c r="F90" s="145"/>
+      <c r="G90" s="145"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="143"/>
+      <c r="J90" s="144"/>
+      <c r="K90" s="110"/>
+      <c r="L90" s="110"/>
+      <c r="M90" s="110"/>
+      <c r="N90" s="110"/>
+      <c r="O90" s="110"/>
+      <c r="P90" s="110"/>
+      <c r="Q90" s="110"/>
+      <c r="R90" s="110"/>
+      <c r="S90" s="110"/>
+      <c r="T90" s="110"/>
+      <c r="U90" s="110"/>
+      <c r="V90" s="110"/>
+      <c r="W90" s="110"/>
+      <c r="X90" s="110"/>
+      <c r="Y90" s="110"/>
+      <c r="Z90" s="142"/>
+      <c r="AA90" s="142"/>
+      <c r="AB90" s="142"/>
+      <c r="AC90" s="142"/>
+      <c r="AD90" s="142"/>
+      <c r="AE90" s="142"/>
+      <c r="AF90" s="142"/>
+      <c r="AG90" s="142"/>
+      <c r="AH90" s="142"/>
+      <c r="AI90" s="142"/>
+    </row>
+    <row r="91" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B91" s="138"/>
+      <c r="C91" s="144"/>
+      <c r="D91" s="144"/>
+      <c r="E91" s="144"/>
+      <c r="F91" s="144"/>
+      <c r="G91" s="144"/>
+      <c r="H91" s="144"/>
+      <c r="I91" s="144"/>
+      <c r="J91" s="144"/>
+      <c r="K91" s="110"/>
+      <c r="L91" s="110"/>
+      <c r="M91" s="110"/>
+      <c r="N91" s="110"/>
+      <c r="O91" s="110"/>
+      <c r="P91" s="110"/>
+      <c r="Q91" s="110"/>
+      <c r="R91" s="110"/>
+      <c r="S91" s="110"/>
+      <c r="T91" s="110"/>
+      <c r="U91" s="110"/>
+      <c r="V91" s="110"/>
+      <c r="W91" s="110"/>
+      <c r="X91" s="110"/>
+      <c r="Y91" s="110"/>
+      <c r="Z91" s="142"/>
+      <c r="AA91" s="142"/>
+      <c r="AB91" s="142"/>
+      <c r="AC91" s="142"/>
+      <c r="AD91" s="142"/>
+      <c r="AE91" s="142"/>
+      <c r="AF91" s="142"/>
+      <c r="AG91" s="142"/>
+      <c r="AH91" s="142"/>
+      <c r="AI91" s="142"/>
+    </row>
+    <row r="92" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B92" s="138"/>
+      <c r="C92" s="144"/>
+      <c r="D92" s="144"/>
+      <c r="E92" s="144"/>
+      <c r="F92" s="144"/>
+      <c r="G92" s="144"/>
+      <c r="H92" s="144"/>
+      <c r="I92" s="144"/>
+      <c r="J92" s="144"/>
+      <c r="K92" s="110"/>
+      <c r="L92" s="110"/>
+      <c r="M92" s="110"/>
+      <c r="N92" s="110"/>
+      <c r="O92" s="110"/>
+      <c r="P92" s="110"/>
+      <c r="Q92" s="110"/>
+      <c r="R92" s="110"/>
+      <c r="S92" s="110"/>
+      <c r="T92" s="110"/>
+      <c r="U92" s="110"/>
+      <c r="V92" s="110"/>
+      <c r="W92" s="110"/>
+      <c r="X92" s="110"/>
+      <c r="Y92" s="110"/>
+      <c r="Z92" s="142"/>
+      <c r="AA92" s="142"/>
+      <c r="AB92" s="142"/>
+      <c r="AC92" s="142"/>
+      <c r="AD92" s="142"/>
+      <c r="AE92" s="142"/>
+      <c r="AF92" s="142"/>
+      <c r="AG92" s="142"/>
+      <c r="AH92" s="142"/>
+      <c r="AI92" s="142"/>
+    </row>
+    <row r="93" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B93" s="138"/>
+      <c r="C93" s="144"/>
+      <c r="D93" s="144"/>
+      <c r="E93" s="144"/>
+      <c r="F93" s="144"/>
+      <c r="G93" s="144"/>
+      <c r="H93" s="144"/>
+      <c r="I93" s="144"/>
+      <c r="J93" s="144"/>
+      <c r="K93" s="110"/>
+      <c r="L93" s="110"/>
+      <c r="M93" s="110"/>
+      <c r="N93" s="110"/>
+      <c r="O93" s="110"/>
+      <c r="P93" s="110"/>
+      <c r="Q93" s="110"/>
+      <c r="R93" s="110"/>
+      <c r="S93" s="110"/>
+      <c r="T93" s="110"/>
+      <c r="U93" s="110"/>
+      <c r="V93" s="110"/>
+      <c r="W93" s="110"/>
+      <c r="X93" s="110"/>
+      <c r="Y93" s="110"/>
+      <c r="Z93" s="142"/>
+      <c r="AA93" s="142"/>
+      <c r="AB93" s="142"/>
+      <c r="AC93" s="142"/>
+      <c r="AD93" s="142"/>
+      <c r="AE93" s="142"/>
+      <c r="AF93" s="142"/>
+      <c r="AG93" s="142"/>
+      <c r="AH93" s="142"/>
+      <c r="AI93" s="142"/>
+    </row>
+    <row r="94" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B94" s="138"/>
+      <c r="C94" s="144"/>
+      <c r="D94" s="144"/>
+      <c r="E94" s="144"/>
+      <c r="F94" s="144"/>
+      <c r="G94" s="144"/>
+      <c r="H94" s="144"/>
+      <c r="I94" s="144"/>
+      <c r="J94" s="144"/>
+      <c r="K94" s="110"/>
+      <c r="L94" s="110"/>
+      <c r="M94" s="110"/>
+      <c r="N94" s="110"/>
+      <c r="O94" s="110"/>
+      <c r="P94" s="110"/>
+      <c r="Q94" s="110"/>
+      <c r="R94" s="110"/>
+      <c r="S94" s="110"/>
+      <c r="T94" s="110"/>
+      <c r="U94" s="110"/>
+      <c r="V94" s="110"/>
+      <c r="W94" s="110"/>
+      <c r="X94" s="110"/>
+      <c r="Y94" s="110"/>
+      <c r="Z94" s="142"/>
+      <c r="AA94" s="142"/>
+      <c r="AB94" s="142"/>
+      <c r="AC94" s="142"/>
+      <c r="AD94" s="142"/>
+      <c r="AE94" s="142"/>
+      <c r="AF94" s="142"/>
+      <c r="AG94" s="142"/>
+      <c r="AH94" s="142"/>
+      <c r="AI94" s="142"/>
+    </row>
+    <row r="95" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B95" s="138"/>
+      <c r="C95" s="144"/>
+      <c r="D95" s="144"/>
+      <c r="E95" s="144"/>
+      <c r="F95" s="144"/>
+      <c r="G95" s="144"/>
+      <c r="H95" s="144"/>
+      <c r="I95" s="144"/>
+      <c r="J95" s="144"/>
+      <c r="K95" s="110"/>
+      <c r="L95" s="110"/>
+      <c r="M95" s="110"/>
+      <c r="N95" s="110"/>
+      <c r="O95" s="110"/>
+      <c r="P95" s="110"/>
+      <c r="Q95" s="110"/>
+      <c r="R95" s="110"/>
+      <c r="S95" s="110"/>
+      <c r="T95" s="110"/>
+      <c r="U95" s="110"/>
+      <c r="V95" s="110"/>
+      <c r="W95" s="110"/>
+      <c r="X95" s="110"/>
+      <c r="Y95" s="110"/>
+      <c r="Z95" s="142"/>
+      <c r="AA95" s="142"/>
+      <c r="AB95" s="142"/>
+      <c r="AC95" s="142"/>
+      <c r="AD95" s="142"/>
+      <c r="AE95" s="142"/>
+      <c r="AF95" s="142"/>
+      <c r="AG95" s="142"/>
+      <c r="AH95" s="142"/>
+      <c r="AI95" s="142"/>
+    </row>
+    <row r="96" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B96" s="138"/>
+      <c r="C96" s="144"/>
+      <c r="D96" s="144"/>
+      <c r="E96" s="144"/>
+      <c r="F96" s="144"/>
+      <c r="G96" s="144"/>
+      <c r="H96" s="144"/>
+      <c r="I96" s="144"/>
+      <c r="J96" s="144"/>
+      <c r="K96" s="110"/>
+      <c r="L96" s="110"/>
+      <c r="M96" s="110"/>
+      <c r="N96" s="110"/>
+      <c r="O96" s="110"/>
+      <c r="P96" s="110"/>
+      <c r="Q96" s="110"/>
+      <c r="R96" s="110"/>
+      <c r="S96" s="110"/>
+      <c r="T96" s="110"/>
+      <c r="U96" s="110"/>
+      <c r="V96" s="110"/>
+      <c r="W96" s="110"/>
+      <c r="X96" s="110"/>
+      <c r="Y96" s="110"/>
+      <c r="Z96" s="142"/>
+      <c r="AA96" s="142"/>
+      <c r="AB96" s="142"/>
+      <c r="AC96" s="142"/>
+      <c r="AD96" s="142"/>
+      <c r="AE96" s="142"/>
+      <c r="AF96" s="142"/>
+      <c r="AG96" s="142"/>
+      <c r="AH96" s="142"/>
+      <c r="AI96" s="142"/>
+    </row>
+    <row r="97" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B97" s="138"/>
+      <c r="C97" s="144"/>
+      <c r="D97" s="144"/>
+      <c r="E97" s="144"/>
+      <c r="F97" s="144"/>
+      <c r="G97" s="144"/>
+      <c r="H97" s="144"/>
+      <c r="I97" s="144"/>
+      <c r="J97" s="144"/>
+      <c r="K97" s="110"/>
+      <c r="L97" s="110"/>
+      <c r="M97" s="110"/>
+      <c r="N97" s="110"/>
+      <c r="O97" s="110"/>
+      <c r="P97" s="110"/>
+      <c r="Q97" s="110"/>
+      <c r="R97" s="110"/>
+      <c r="S97" s="110"/>
+      <c r="T97" s="110"/>
+      <c r="U97" s="110"/>
+      <c r="V97" s="110"/>
+      <c r="W97" s="110"/>
+      <c r="X97" s="110"/>
+      <c r="Y97" s="110"/>
+      <c r="Z97" s="142"/>
+      <c r="AA97" s="142"/>
+      <c r="AB97" s="142"/>
+      <c r="AC97" s="142"/>
+      <c r="AD97" s="142"/>
+      <c r="AE97" s="142"/>
+      <c r="AF97" s="142"/>
+      <c r="AG97" s="142"/>
+      <c r="AH97" s="142"/>
+      <c r="AI97" s="142"/>
+    </row>
+    <row r="98" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B98" s="138"/>
+      <c r="C98" s="144"/>
+      <c r="D98" s="144"/>
+      <c r="E98" s="144"/>
+      <c r="F98" s="144"/>
+      <c r="G98" s="144"/>
+      <c r="H98" s="144"/>
+      <c r="I98" s="144"/>
+      <c r="J98" s="144"/>
+      <c r="K98" s="110"/>
+      <c r="L98" s="110"/>
+      <c r="M98" s="110"/>
+      <c r="N98" s="110"/>
+      <c r="O98" s="110"/>
+      <c r="P98" s="110"/>
+      <c r="Q98" s="110"/>
+      <c r="R98" s="110"/>
+      <c r="S98" s="110"/>
+      <c r="T98" s="110"/>
+      <c r="U98" s="110"/>
+      <c r="V98" s="110"/>
+      <c r="W98" s="110"/>
+      <c r="X98" s="110"/>
+      <c r="Y98" s="110"/>
+      <c r="Z98" s="142"/>
+      <c r="AA98" s="142"/>
+      <c r="AB98" s="142"/>
+      <c r="AC98" s="142"/>
+      <c r="AD98" s="142"/>
+      <c r="AE98" s="142"/>
+      <c r="AF98" s="142"/>
+      <c r="AG98" s="142"/>
+      <c r="AH98" s="142"/>
+      <c r="AI98" s="142"/>
+    </row>
+    <row r="99" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B99" s="138"/>
+      <c r="C99" s="144"/>
+      <c r="D99" s="144"/>
+      <c r="E99" s="144"/>
+      <c r="F99" s="144"/>
+      <c r="G99" s="144"/>
+      <c r="H99" s="144"/>
+      <c r="I99" s="144"/>
+      <c r="J99" s="144"/>
+      <c r="K99" s="110"/>
+      <c r="L99" s="110"/>
+      <c r="M99" s="110"/>
+      <c r="N99" s="110"/>
+      <c r="O99" s="110"/>
+      <c r="P99" s="110"/>
+      <c r="Q99" s="110"/>
+      <c r="R99" s="110"/>
+      <c r="S99" s="110"/>
+      <c r="T99" s="110"/>
+      <c r="U99" s="110"/>
+      <c r="V99" s="110"/>
+      <c r="W99" s="110"/>
+      <c r="X99" s="110"/>
+      <c r="Y99" s="110"/>
+      <c r="Z99" s="142"/>
+      <c r="AA99" s="142"/>
+      <c r="AB99" s="142"/>
+      <c r="AC99" s="142"/>
+      <c r="AD99" s="142"/>
+      <c r="AE99" s="142"/>
+      <c r="AF99" s="142"/>
+      <c r="AG99" s="142"/>
+      <c r="AH99" s="142"/>
+      <c r="AI99" s="142"/>
+    </row>
+    <row r="100" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B100" s="138"/>
+      <c r="C100" s="144"/>
+      <c r="D100" s="144"/>
+      <c r="E100" s="144"/>
+      <c r="F100" s="144"/>
+      <c r="G100" s="144"/>
+      <c r="H100" s="144"/>
+      <c r="I100" s="144"/>
+      <c r="J100" s="144"/>
+      <c r="K100" s="110"/>
+      <c r="L100" s="110"/>
+      <c r="M100" s="110"/>
+      <c r="N100" s="110"/>
+      <c r="O100" s="110"/>
+      <c r="P100" s="110"/>
+      <c r="Q100" s="110"/>
+      <c r="R100" s="110"/>
+      <c r="S100" s="110"/>
+      <c r="T100" s="110"/>
+      <c r="U100" s="110"/>
+      <c r="V100" s="110"/>
+      <c r="W100" s="110"/>
+      <c r="X100" s="110"/>
+      <c r="Y100" s="110"/>
+      <c r="Z100" s="142"/>
+      <c r="AA100" s="142"/>
+      <c r="AB100" s="142"/>
+      <c r="AC100" s="142"/>
+      <c r="AD100" s="142"/>
+      <c r="AE100" s="142"/>
+      <c r="AF100" s="142"/>
+      <c r="AG100" s="142"/>
+      <c r="AH100" s="142"/>
+      <c r="AI100" s="142"/>
+    </row>
+    <row r="101" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B101" s="138"/>
+      <c r="C101" s="144"/>
+      <c r="D101" s="144"/>
+      <c r="E101" s="144"/>
+      <c r="F101" s="144"/>
+      <c r="G101" s="144"/>
+      <c r="H101" s="144"/>
+      <c r="I101" s="144"/>
+      <c r="J101" s="144"/>
+      <c r="K101" s="110"/>
+      <c r="L101" s="110"/>
+      <c r="M101" s="110"/>
+      <c r="N101" s="110"/>
+      <c r="O101" s="110"/>
+      <c r="P101" s="110"/>
+      <c r="Q101" s="110"/>
+      <c r="R101" s="110"/>
+      <c r="S101" s="110"/>
+      <c r="T101" s="110"/>
+      <c r="U101" s="110"/>
+      <c r="V101" s="110"/>
+      <c r="W101" s="110"/>
+      <c r="X101" s="110"/>
+      <c r="Y101" s="110"/>
+      <c r="Z101" s="142"/>
+      <c r="AA101" s="142"/>
+      <c r="AB101" s="142"/>
+      <c r="AC101" s="142"/>
+      <c r="AD101" s="142"/>
+      <c r="AE101" s="142"/>
+      <c r="AF101" s="142"/>
+      <c r="AG101" s="142"/>
+      <c r="AH101" s="142"/>
+      <c r="AI101" s="142"/>
+    </row>
+    <row r="102" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B102" s="138"/>
+      <c r="C102" s="144"/>
+      <c r="D102" s="144"/>
+      <c r="E102" s="144"/>
+      <c r="F102" s="144"/>
+      <c r="G102" s="144"/>
+      <c r="H102" s="144"/>
+      <c r="I102" s="144"/>
+      <c r="J102" s="144"/>
+      <c r="K102" s="110"/>
+      <c r="L102" s="110"/>
+      <c r="M102" s="110"/>
+      <c r="N102" s="110"/>
+      <c r="O102" s="110"/>
+      <c r="P102" s="110"/>
+      <c r="Q102" s="110"/>
+      <c r="R102" s="110"/>
+      <c r="S102" s="110"/>
+      <c r="T102" s="110"/>
+      <c r="U102" s="110"/>
+      <c r="V102" s="110"/>
+      <c r="W102" s="110"/>
+      <c r="X102" s="110"/>
+      <c r="Y102" s="110"/>
+      <c r="Z102" s="142"/>
+      <c r="AA102" s="142"/>
+      <c r="AB102" s="142"/>
+      <c r="AC102" s="142"/>
+      <c r="AD102" s="142"/>
+      <c r="AE102" s="142"/>
+      <c r="AF102" s="142"/>
+      <c r="AG102" s="142"/>
+      <c r="AH102" s="142"/>
+      <c r="AI102" s="142"/>
+    </row>
+    <row r="103" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B103" s="138"/>
+      <c r="C103" s="144"/>
+      <c r="D103" s="144"/>
+      <c r="E103" s="144"/>
+      <c r="F103" s="144"/>
+      <c r="G103" s="144"/>
+      <c r="H103" s="144"/>
+      <c r="I103" s="144"/>
+      <c r="J103" s="144"/>
+      <c r="K103" s="110"/>
+      <c r="L103" s="110"/>
+      <c r="M103" s="110"/>
+      <c r="N103" s="110"/>
+      <c r="O103" s="110"/>
+      <c r="P103" s="110"/>
+      <c r="Q103" s="110"/>
+      <c r="R103" s="110"/>
+      <c r="S103" s="110"/>
+      <c r="T103" s="110"/>
+      <c r="U103" s="110"/>
+      <c r="V103" s="110"/>
+      <c r="W103" s="110"/>
+      <c r="X103" s="110"/>
+      <c r="Y103" s="110"/>
+      <c r="Z103" s="142"/>
+      <c r="AA103" s="142"/>
+      <c r="AB103" s="142"/>
+      <c r="AC103" s="142"/>
+      <c r="AD103" s="142"/>
+      <c r="AE103" s="142"/>
+      <c r="AF103" s="142"/>
+      <c r="AG103" s="142"/>
+      <c r="AH103" s="142"/>
+      <c r="AI103" s="142"/>
+    </row>
+    <row r="104" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B104" s="138"/>
+      <c r="C104" s="144"/>
+      <c r="D104" s="144"/>
+      <c r="E104" s="144"/>
+      <c r="F104" s="144"/>
+      <c r="G104" s="144"/>
+      <c r="H104" s="144"/>
+      <c r="I104" s="144"/>
+      <c r="J104" s="144"/>
+      <c r="K104" s="110"/>
+      <c r="L104" s="110"/>
+      <c r="M104" s="110"/>
+      <c r="N104" s="110"/>
+      <c r="O104" s="110"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="110"/>
+      <c r="R104" s="110"/>
+      <c r="S104" s="110"/>
+      <c r="T104" s="110"/>
+      <c r="U104" s="110"/>
+      <c r="V104" s="110"/>
+      <c r="W104" s="110"/>
+      <c r="X104" s="110"/>
+      <c r="Y104" s="110"/>
+      <c r="Z104" s="142"/>
+      <c r="AA104" s="142"/>
+      <c r="AB104" s="142"/>
+      <c r="AC104" s="142"/>
+      <c r="AD104" s="142"/>
+      <c r="AE104" s="142"/>
+      <c r="AF104" s="142"/>
+      <c r="AG104" s="142"/>
+      <c r="AH104" s="142"/>
+      <c r="AI104" s="142"/>
+    </row>
+    <row r="105" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B105" s="138"/>
+      <c r="C105" s="144"/>
+      <c r="D105" s="144"/>
+      <c r="E105" s="144"/>
+      <c r="F105" s="144"/>
+      <c r="G105" s="144"/>
+      <c r="H105" s="144"/>
+      <c r="I105" s="144"/>
+      <c r="J105" s="144"/>
+      <c r="K105" s="110"/>
+      <c r="L105" s="110"/>
+      <c r="M105" s="110"/>
+      <c r="N105" s="110"/>
+      <c r="O105" s="110"/>
+      <c r="P105" s="110"/>
+      <c r="Q105" s="110"/>
+      <c r="R105" s="110"/>
+      <c r="S105" s="110"/>
+      <c r="T105" s="110"/>
+      <c r="U105" s="110"/>
+      <c r="V105" s="110"/>
+      <c r="W105" s="110"/>
+      <c r="X105" s="110"/>
+      <c r="Y105" s="110"/>
+      <c r="Z105" s="142"/>
+      <c r="AA105" s="142"/>
+      <c r="AB105" s="142"/>
+      <c r="AC105" s="142"/>
+      <c r="AD105" s="142"/>
+      <c r="AE105" s="142"/>
+      <c r="AF105" s="142"/>
+      <c r="AG105" s="142"/>
+      <c r="AH105" s="142"/>
+      <c r="AI105" s="142"/>
+    </row>
+    <row r="106" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B106" s="138"/>
+      <c r="C106" s="144"/>
+      <c r="D106" s="144"/>
+      <c r="E106" s="144"/>
+      <c r="F106" s="144"/>
+      <c r="G106" s="144"/>
+      <c r="H106" s="144"/>
+      <c r="I106" s="144"/>
+      <c r="J106" s="144"/>
+      <c r="K106" s="110"/>
+      <c r="L106" s="110"/>
+      <c r="M106" s="110"/>
+      <c r="N106" s="110"/>
+      <c r="O106" s="110"/>
+      <c r="P106" s="110"/>
+      <c r="Q106" s="110"/>
+      <c r="R106" s="110"/>
+      <c r="S106" s="110"/>
+      <c r="T106" s="110"/>
+      <c r="U106" s="110"/>
+      <c r="V106" s="110"/>
+      <c r="W106" s="110"/>
+      <c r="X106" s="110"/>
+      <c r="Y106" s="110"/>
+      <c r="Z106" s="142"/>
+      <c r="AA106" s="142"/>
+      <c r="AB106" s="142"/>
+      <c r="AC106" s="142"/>
+      <c r="AD106" s="142"/>
+      <c r="AE106" s="142"/>
+      <c r="AF106" s="142"/>
+      <c r="AG106" s="142"/>
+      <c r="AH106" s="142"/>
+      <c r="AI106" s="142"/>
+    </row>
+    <row r="107" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B107" s="138"/>
+      <c r="C107" s="144"/>
+      <c r="D107" s="144"/>
+      <c r="E107" s="144"/>
+      <c r="F107" s="144"/>
+      <c r="G107" s="144"/>
+      <c r="H107" s="144"/>
+      <c r="I107" s="144"/>
+      <c r="J107" s="144"/>
+      <c r="K107" s="110"/>
+      <c r="L107" s="110"/>
+      <c r="M107" s="110"/>
+      <c r="N107" s="110"/>
+      <c r="O107" s="110"/>
+      <c r="P107" s="110"/>
+      <c r="Q107" s="110"/>
+      <c r="R107" s="110"/>
+      <c r="S107" s="110"/>
+      <c r="T107" s="110"/>
+      <c r="U107" s="110"/>
+      <c r="V107" s="110"/>
+      <c r="W107" s="110"/>
+      <c r="X107" s="110"/>
+      <c r="Y107" s="110"/>
+      <c r="Z107" s="142"/>
+      <c r="AA107" s="142"/>
+      <c r="AB107" s="142"/>
+      <c r="AC107" s="142"/>
+      <c r="AD107" s="142"/>
+      <c r="AE107" s="142"/>
+      <c r="AF107" s="142"/>
+      <c r="AG107" s="142"/>
+      <c r="AH107" s="142"/>
+      <c r="AI107" s="142"/>
+    </row>
+    <row r="108" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B108" s="138"/>
+      <c r="C108" s="146"/>
+      <c r="D108" s="146"/>
+      <c r="E108" s="146"/>
+      <c r="F108" s="146"/>
+      <c r="G108" s="146"/>
+      <c r="H108" s="146"/>
+      <c r="I108" s="146"/>
+      <c r="J108" s="146"/>
+      <c r="K108" s="142"/>
+      <c r="L108" s="142"/>
+      <c r="M108" s="142"/>
+      <c r="N108" s="142"/>
+      <c r="O108" s="142"/>
+      <c r="P108" s="142"/>
+      <c r="Q108" s="142"/>
+      <c r="R108" s="142"/>
+      <c r="S108" s="142"/>
+      <c r="T108" s="142"/>
+      <c r="U108" s="142"/>
+      <c r="V108" s="142"/>
+      <c r="W108" s="142"/>
+      <c r="X108" s="142"/>
+      <c r="Y108" s="142"/>
+      <c r="Z108" s="142"/>
+      <c r="AA108" s="142"/>
+      <c r="AB108" s="142"/>
+      <c r="AC108" s="142"/>
+      <c r="AD108" s="142"/>
+      <c r="AE108" s="142"/>
+      <c r="AF108" s="142"/>
+      <c r="AG108" s="142"/>
+      <c r="AH108" s="142"/>
+      <c r="AI108" s="142"/>
+    </row>
+    <row r="109" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B109" s="138"/>
+      <c r="C109" s="146"/>
+      <c r="D109" s="145"/>
+      <c r="E109" s="145"/>
+      <c r="F109" s="145"/>
+      <c r="G109" s="145"/>
+      <c r="H109" s="145"/>
+      <c r="I109" s="146"/>
+      <c r="J109" s="146"/>
+      <c r="K109" s="142"/>
+      <c r="L109" s="142"/>
+      <c r="M109" s="142"/>
+      <c r="N109" s="142"/>
+      <c r="O109" s="142"/>
+      <c r="P109" s="142"/>
+      <c r="Q109" s="142"/>
+      <c r="R109" s="142"/>
+      <c r="S109" s="142"/>
+      <c r="T109" s="142"/>
+      <c r="U109" s="142"/>
+      <c r="V109" s="142"/>
+      <c r="W109" s="142"/>
+      <c r="X109" s="142"/>
+      <c r="Y109" s="142"/>
+      <c r="Z109" s="142"/>
+      <c r="AA109" s="142"/>
+      <c r="AB109" s="142"/>
+      <c r="AC109" s="142"/>
+      <c r="AD109" s="142"/>
+      <c r="AE109" s="142"/>
+      <c r="AF109" s="142"/>
+      <c r="AG109" s="142"/>
+      <c r="AH109" s="142"/>
+      <c r="AI109" s="142"/>
+    </row>
+    <row r="110" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B110" s="138"/>
+      <c r="C110" s="146"/>
+      <c r="D110" s="145"/>
+      <c r="E110" s="145"/>
+      <c r="F110" s="145"/>
+      <c r="G110" s="145"/>
+      <c r="H110" s="145"/>
+      <c r="I110" s="146"/>
+      <c r="J110" s="146"/>
+      <c r="K110" s="142"/>
+      <c r="L110" s="142"/>
+      <c r="M110" s="142"/>
+      <c r="N110" s="142"/>
+      <c r="O110" s="142"/>
+      <c r="P110" s="142"/>
+      <c r="Q110" s="142"/>
+      <c r="R110" s="142"/>
+      <c r="S110" s="142"/>
+      <c r="T110" s="142"/>
+      <c r="U110" s="142"/>
+      <c r="V110" s="142"/>
+      <c r="W110" s="142"/>
+      <c r="X110" s="142"/>
+      <c r="Y110" s="142"/>
+      <c r="Z110" s="142"/>
+      <c r="AA110" s="142"/>
+      <c r="AB110" s="142"/>
+      <c r="AC110" s="142"/>
+      <c r="AD110" s="142"/>
+      <c r="AE110" s="142"/>
+      <c r="AF110" s="142"/>
+      <c r="AG110" s="142"/>
+      <c r="AH110" s="142"/>
+      <c r="AI110" s="142"/>
+    </row>
+    <row r="111" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B111" s="138"/>
+      <c r="C111" s="146"/>
+      <c r="D111" s="145"/>
+      <c r="E111" s="145"/>
+      <c r="F111" s="145"/>
+      <c r="G111" s="145"/>
+      <c r="H111" s="145"/>
+      <c r="I111" s="146"/>
+      <c r="J111" s="146"/>
+      <c r="K111" s="142"/>
+      <c r="L111" s="142"/>
+      <c r="M111" s="142"/>
+      <c r="N111" s="142"/>
+      <c r="O111" s="142"/>
+      <c r="P111" s="142"/>
+      <c r="Q111" s="142"/>
+      <c r="R111" s="142"/>
+      <c r="S111" s="142"/>
+      <c r="T111" s="142"/>
+      <c r="U111" s="142"/>
+      <c r="V111" s="142"/>
+      <c r="W111" s="142"/>
+      <c r="X111" s="142"/>
+      <c r="Y111" s="142"/>
+      <c r="Z111" s="142"/>
+      <c r="AA111" s="142"/>
+      <c r="AB111" s="142"/>
+      <c r="AC111" s="142"/>
+      <c r="AD111" s="142"/>
+      <c r="AE111" s="142"/>
+      <c r="AF111" s="142"/>
+      <c r="AG111" s="142"/>
+      <c r="AH111" s="142"/>
+      <c r="AI111" s="142"/>
+    </row>
+    <row r="112" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B112" s="138"/>
+      <c r="C112" s="146"/>
+      <c r="D112" s="146"/>
+      <c r="E112" s="146"/>
+      <c r="F112" s="146"/>
+      <c r="G112" s="146"/>
+      <c r="H112" s="146"/>
+      <c r="I112" s="146"/>
+      <c r="J112" s="146"/>
+      <c r="K112" s="142"/>
+      <c r="L112" s="142"/>
+      <c r="M112" s="142"/>
+      <c r="N112" s="142"/>
+      <c r="O112" s="142"/>
+      <c r="P112" s="142"/>
+      <c r="Q112" s="142"/>
+      <c r="R112" s="142"/>
+      <c r="S112" s="142"/>
+      <c r="T112" s="142"/>
+      <c r="U112" s="142"/>
+      <c r="V112" s="142"/>
+      <c r="W112" s="142"/>
+      <c r="X112" s="142"/>
+      <c r="Y112" s="142"/>
+      <c r="Z112" s="142"/>
+      <c r="AA112" s="142"/>
+      <c r="AB112" s="142"/>
+      <c r="AC112" s="142"/>
+      <c r="AD112" s="142"/>
+      <c r="AE112" s="142"/>
+      <c r="AF112" s="142"/>
+      <c r="AG112" s="142"/>
+      <c r="AH112" s="142"/>
+      <c r="AI112" s="142"/>
+    </row>
+    <row r="113" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B113" s="138"/>
+      <c r="C113" s="142"/>
+      <c r="D113" s="141">
+        <v>1.24</v>
+      </c>
+      <c r="E113" s="147"/>
+      <c r="F113" s="141"/>
+      <c r="G113" s="141">
+        <v>54600</v>
+      </c>
+      <c r="H113" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="I113" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="J113" s="142"/>
+      <c r="K113" s="142"/>
+      <c r="L113" s="142"/>
+      <c r="M113" s="142"/>
+      <c r="N113" s="142"/>
+      <c r="O113" s="142"/>
+      <c r="P113" s="142"/>
+      <c r="Q113" s="142"/>
+      <c r="R113" s="142"/>
+      <c r="S113" s="142"/>
+      <c r="T113" s="142"/>
+      <c r="U113" s="142"/>
+      <c r="V113" s="142"/>
+      <c r="W113" s="142"/>
+      <c r="X113" s="142"/>
+      <c r="Y113" s="142"/>
+      <c r="Z113" s="142"/>
+      <c r="AA113" s="142"/>
+      <c r="AB113" s="142"/>
+      <c r="AC113" s="142"/>
+      <c r="AD113" s="142"/>
+      <c r="AE113" s="142"/>
+      <c r="AF113" s="142"/>
+      <c r="AG113" s="142"/>
+      <c r="AH113" s="142"/>
+      <c r="AI113" s="142"/>
+    </row>
+    <row r="114" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B114" s="138"/>
+      <c r="C114" s="142"/>
+      <c r="D114" s="141"/>
+      <c r="E114" s="147"/>
+      <c r="F114" s="141"/>
+      <c r="G114" s="141">
+        <v>1000000</v>
+      </c>
+      <c r="H114" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="I114" s="142"/>
+      <c r="J114" s="142"/>
+      <c r="K114" s="142"/>
+      <c r="L114" s="142"/>
+      <c r="M114" s="142"/>
+      <c r="N114" s="142"/>
+      <c r="O114" s="142"/>
+      <c r="P114" s="142"/>
+      <c r="Q114" s="142"/>
+      <c r="R114" s="142"/>
+      <c r="S114" s="142"/>
+      <c r="T114" s="142"/>
+      <c r="U114" s="142"/>
+      <c r="V114" s="142"/>
+      <c r="W114" s="142"/>
+      <c r="X114" s="142"/>
+      <c r="Y114" s="142"/>
+      <c r="Z114" s="142"/>
+      <c r="AA114" s="142"/>
+      <c r="AB114" s="142"/>
+      <c r="AC114" s="142"/>
+      <c r="AD114" s="142"/>
+      <c r="AE114" s="142"/>
+      <c r="AF114" s="142"/>
+      <c r="AG114" s="142"/>
+      <c r="AH114" s="142"/>
+      <c r="AI114" s="142"/>
+    </row>
+    <row r="115" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B115" s="138"/>
+      <c r="C115" s="142"/>
+      <c r="D115" s="141"/>
+      <c r="E115" s="147"/>
+      <c r="F115" s="141"/>
+      <c r="G115" s="141">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="H115" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="I115" s="142"/>
+      <c r="J115" s="142"/>
+      <c r="K115" s="142"/>
+      <c r="L115" s="142"/>
+      <c r="M115" s="142"/>
+      <c r="N115" s="142"/>
+      <c r="O115" s="142"/>
+      <c r="P115" s="142"/>
+      <c r="Q115" s="142"/>
+      <c r="R115" s="142"/>
+      <c r="S115" s="142"/>
+      <c r="T115" s="142"/>
+      <c r="U115" s="142"/>
+      <c r="V115" s="142"/>
+      <c r="W115" s="142"/>
+      <c r="X115" s="142"/>
+      <c r="Y115" s="142"/>
+      <c r="Z115" s="142"/>
+      <c r="AA115" s="142"/>
+      <c r="AB115" s="142"/>
+      <c r="AC115" s="142"/>
+      <c r="AD115" s="142"/>
+      <c r="AE115" s="142"/>
+      <c r="AF115" s="142"/>
+      <c r="AG115" s="142"/>
+      <c r="AH115" s="142"/>
+      <c r="AI115" s="142"/>
+    </row>
+    <row r="116" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B116" s="138"/>
+      <c r="C116" s="142"/>
+      <c r="D116" s="142"/>
+      <c r="E116" s="142"/>
+      <c r="F116" s="142"/>
+      <c r="G116" s="142"/>
+      <c r="H116" s="142"/>
+      <c r="I116" s="142"/>
+      <c r="J116" s="142"/>
+      <c r="K116" s="142"/>
+      <c r="L116" s="142"/>
+      <c r="M116" s="142"/>
+      <c r="N116" s="142"/>
+      <c r="O116" s="142"/>
+      <c r="P116" s="142"/>
+      <c r="Q116" s="142"/>
+      <c r="R116" s="142"/>
+      <c r="S116" s="142"/>
+      <c r="T116" s="142"/>
+      <c r="U116" s="142"/>
+      <c r="V116" s="142"/>
+      <c r="W116" s="142"/>
+      <c r="X116" s="142"/>
+      <c r="Y116" s="142"/>
+      <c r="Z116" s="142"/>
+      <c r="AA116" s="142"/>
+      <c r="AB116" s="142"/>
+      <c r="AC116" s="142"/>
+      <c r="AD116" s="142"/>
+      <c r="AE116" s="142"/>
+      <c r="AF116" s="142"/>
+      <c r="AG116" s="142"/>
+      <c r="AH116" s="142"/>
+      <c r="AI116" s="142"/>
+    </row>
+    <row r="117" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B117" s="138"/>
+      <c r="C117" s="142"/>
+      <c r="D117" s="142"/>
+      <c r="E117" s="142"/>
+      <c r="F117" s="142"/>
+      <c r="G117" s="142"/>
+      <c r="H117" s="142"/>
+      <c r="I117" s="142"/>
+      <c r="J117" s="142"/>
+      <c r="K117" s="142"/>
+      <c r="L117" s="142"/>
+      <c r="M117" s="142"/>
+      <c r="N117" s="142"/>
+      <c r="O117" s="142"/>
+      <c r="P117" s="142"/>
+      <c r="Q117" s="142"/>
+      <c r="R117" s="142"/>
+      <c r="S117" s="142"/>
+      <c r="T117" s="142"/>
+      <c r="U117" s="142"/>
+      <c r="V117" s="142"/>
+      <c r="W117" s="142"/>
+      <c r="X117" s="142"/>
+      <c r="Y117" s="142"/>
+      <c r="Z117" s="142"/>
+      <c r="AA117" s="142"/>
+      <c r="AB117" s="142"/>
+      <c r="AC117" s="142"/>
+      <c r="AD117" s="142"/>
+      <c r="AE117" s="142"/>
+      <c r="AF117" s="142"/>
+      <c r="AG117" s="142"/>
+      <c r="AH117" s="142"/>
+      <c r="AI117" s="142"/>
+    </row>
+    <row r="118" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B118" s="138"/>
+      <c r="C118" s="142"/>
+      <c r="D118" s="142"/>
+      <c r="E118" s="142"/>
+      <c r="F118" s="142"/>
+      <c r="G118" s="142"/>
+      <c r="H118" s="142"/>
+      <c r="I118" s="142"/>
+      <c r="J118" s="142"/>
+      <c r="K118" s="142"/>
+      <c r="L118" s="142"/>
+      <c r="M118" s="142"/>
+      <c r="N118" s="142"/>
+      <c r="O118" s="142"/>
+      <c r="P118" s="142"/>
+      <c r="Q118" s="142"/>
+      <c r="R118" s="142"/>
+      <c r="S118" s="142"/>
+      <c r="T118" s="142"/>
+      <c r="U118" s="142"/>
+      <c r="V118" s="142"/>
+      <c r="W118" s="142"/>
+      <c r="X118" s="142"/>
+      <c r="Y118" s="142"/>
+      <c r="Z118" s="142"/>
+      <c r="AA118" s="142"/>
+      <c r="AB118" s="142"/>
+      <c r="AC118" s="142"/>
+      <c r="AD118" s="142"/>
+      <c r="AE118" s="142"/>
+      <c r="AF118" s="142"/>
+      <c r="AG118" s="142"/>
+      <c r="AH118" s="142"/>
+      <c r="AI118" s="142"/>
+    </row>
+    <row r="119" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B119" s="138"/>
+      <c r="C119" s="142"/>
+      <c r="D119" s="142"/>
+      <c r="E119" s="142"/>
+      <c r="F119" s="142"/>
+      <c r="G119" s="142"/>
+      <c r="H119" s="142"/>
+      <c r="I119" s="142"/>
+      <c r="J119" s="142"/>
+      <c r="K119" s="142"/>
+      <c r="L119" s="142"/>
+      <c r="M119" s="142"/>
+      <c r="N119" s="142"/>
+      <c r="O119" s="142"/>
+      <c r="P119" s="142"/>
+      <c r="Q119" s="142"/>
+      <c r="R119" s="142"/>
+      <c r="S119" s="142"/>
+      <c r="T119" s="142"/>
+      <c r="U119" s="142"/>
+      <c r="V119" s="142"/>
+      <c r="W119" s="142"/>
+      <c r="X119" s="142"/>
+      <c r="Y119" s="142"/>
+      <c r="Z119" s="142"/>
+      <c r="AA119" s="142"/>
+      <c r="AB119" s="142"/>
+      <c r="AC119" s="142"/>
+      <c r="AD119" s="142"/>
+      <c r="AE119" s="142"/>
+      <c r="AF119" s="142"/>
+      <c r="AG119" s="142"/>
+      <c r="AH119" s="142"/>
+      <c r="AI119" s="142"/>
+    </row>
+    <row r="120" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B120" s="138"/>
+      <c r="C120" s="142"/>
+      <c r="D120" s="142"/>
+      <c r="E120" s="142"/>
+      <c r="F120" s="142"/>
+      <c r="G120" s="142"/>
+      <c r="H120" s="142"/>
+      <c r="I120" s="142"/>
+      <c r="J120" s="142"/>
+      <c r="K120" s="142"/>
+      <c r="L120" s="142"/>
+      <c r="M120" s="142"/>
+      <c r="N120" s="142"/>
+      <c r="O120" s="142"/>
+      <c r="P120" s="142"/>
+      <c r="Q120" s="142"/>
+      <c r="R120" s="142"/>
+      <c r="S120" s="142"/>
+      <c r="T120" s="142"/>
+      <c r="U120" s="142"/>
+      <c r="V120" s="142"/>
+      <c r="W120" s="142"/>
+      <c r="X120" s="142"/>
+      <c r="Y120" s="142"/>
+      <c r="Z120" s="142"/>
+      <c r="AA120" s="142"/>
+      <c r="AB120" s="142"/>
+      <c r="AC120" s="142"/>
+      <c r="AD120" s="142"/>
+      <c r="AE120" s="142"/>
+      <c r="AF120" s="142"/>
+      <c r="AG120" s="142"/>
+      <c r="AH120" s="142"/>
+      <c r="AI120" s="142"/>
+    </row>
+    <row r="121" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B121" s="138"/>
+      <c r="C121" s="142"/>
+      <c r="D121" s="142"/>
+      <c r="E121" s="142"/>
+      <c r="F121" s="142"/>
+      <c r="G121" s="142"/>
+      <c r="H121" s="142"/>
+      <c r="I121" s="142"/>
+      <c r="J121" s="142"/>
+      <c r="K121" s="142"/>
+      <c r="L121" s="142"/>
+      <c r="M121" s="142"/>
+      <c r="N121" s="142"/>
+      <c r="O121" s="142"/>
+      <c r="P121" s="142"/>
+      <c r="Q121" s="142"/>
+      <c r="R121" s="142"/>
+      <c r="S121" s="142"/>
+      <c r="T121" s="142"/>
+      <c r="U121" s="142"/>
+      <c r="V121" s="142"/>
+      <c r="W121" s="142"/>
+      <c r="X121" s="142"/>
+      <c r="Y121" s="142"/>
+      <c r="Z121" s="142"/>
+      <c r="AA121" s="142"/>
+      <c r="AB121" s="142"/>
+      <c r="AC121" s="142"/>
+      <c r="AD121" s="142"/>
+      <c r="AE121" s="142"/>
+      <c r="AF121" s="142"/>
+      <c r="AG121" s="142"/>
+      <c r="AH121" s="142"/>
+      <c r="AI121" s="142"/>
+    </row>
+    <row r="122" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B122" s="138"/>
+      <c r="C122" s="142"/>
+      <c r="D122" s="142"/>
+      <c r="E122" s="142"/>
+      <c r="F122" s="142"/>
+      <c r="G122" s="142"/>
+      <c r="H122" s="142"/>
+      <c r="I122" s="142"/>
+      <c r="J122" s="142"/>
+      <c r="K122" s="142"/>
+      <c r="L122" s="142"/>
+      <c r="M122" s="142"/>
+      <c r="N122" s="142"/>
+      <c r="O122" s="142"/>
+      <c r="P122" s="142"/>
+      <c r="Q122" s="142"/>
+      <c r="R122" s="142"/>
+      <c r="S122" s="142"/>
+      <c r="T122" s="142"/>
+      <c r="U122" s="142"/>
+      <c r="V122" s="142"/>
+      <c r="W122" s="142"/>
+      <c r="X122" s="142"/>
+      <c r="Y122" s="142"/>
+      <c r="Z122" s="142"/>
+      <c r="AA122" s="142"/>
+      <c r="AB122" s="142"/>
+      <c r="AC122" s="142"/>
+      <c r="AD122" s="142"/>
+      <c r="AE122" s="142"/>
+      <c r="AF122" s="142"/>
+      <c r="AG122" s="142"/>
+      <c r="AH122" s="142"/>
+      <c r="AI122" s="142"/>
+    </row>
+    <row r="123" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B123" s="138"/>
+      <c r="C123" s="142"/>
+      <c r="D123" s="142"/>
+      <c r="E123" s="142"/>
+      <c r="F123" s="142"/>
+      <c r="G123" s="142"/>
+      <c r="H123" s="142"/>
+      <c r="I123" s="142"/>
+      <c r="J123" s="142"/>
+      <c r="K123" s="142"/>
+      <c r="L123" s="142"/>
+      <c r="M123" s="142"/>
+      <c r="N123" s="142"/>
+      <c r="O123" s="142"/>
+      <c r="P123" s="142"/>
+      <c r="Q123" s="142"/>
+      <c r="R123" s="142"/>
+      <c r="S123" s="142"/>
+      <c r="T123" s="142"/>
+      <c r="U123" s="142"/>
+      <c r="V123" s="142"/>
+      <c r="W123" s="142"/>
+      <c r="X123" s="142"/>
+      <c r="Y123" s="142"/>
+      <c r="Z123" s="142"/>
+      <c r="AA123" s="142"/>
+      <c r="AB123" s="142"/>
+      <c r="AC123" s="142"/>
+      <c r="AD123" s="142"/>
+      <c r="AE123" s="142"/>
+      <c r="AF123" s="142"/>
+      <c r="AG123" s="142"/>
+      <c r="AH123" s="142"/>
+      <c r="AI123" s="142"/>
+    </row>
+    <row r="124" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B124" s="138"/>
+      <c r="C124" s="142"/>
+      <c r="D124" s="142"/>
+      <c r="E124" s="142"/>
+      <c r="F124" s="142"/>
+      <c r="G124" s="142"/>
+      <c r="H124" s="142"/>
+      <c r="I124" s="142"/>
+      <c r="J124" s="142"/>
+      <c r="K124" s="142"/>
+      <c r="L124" s="142"/>
+      <c r="M124" s="142"/>
+      <c r="N124" s="142"/>
+      <c r="O124" s="142"/>
+      <c r="P124" s="142"/>
+      <c r="Q124" s="142"/>
+      <c r="R124" s="142"/>
+      <c r="S124" s="142"/>
+      <c r="T124" s="142"/>
+      <c r="U124" s="142"/>
+      <c r="V124" s="142"/>
+      <c r="W124" s="142"/>
+      <c r="X124" s="142"/>
+      <c r="Y124" s="142"/>
+      <c r="Z124" s="142"/>
+      <c r="AA124" s="142"/>
+      <c r="AB124" s="142"/>
+      <c r="AC124" s="142"/>
+      <c r="AD124" s="142"/>
+      <c r="AE124" s="142"/>
+      <c r="AF124" s="142"/>
+      <c r="AG124" s="142"/>
+      <c r="AH124" s="142"/>
+      <c r="AI124" s="142"/>
+    </row>
+    <row r="125" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B125" s="138"/>
+      <c r="C125" s="142"/>
+      <c r="D125" s="142"/>
+      <c r="E125" s="142"/>
+      <c r="F125" s="142"/>
+      <c r="G125" s="142"/>
+      <c r="H125" s="142"/>
+      <c r="I125" s="142"/>
+      <c r="J125" s="142"/>
+      <c r="K125" s="142"/>
+      <c r="L125" s="142"/>
+      <c r="M125" s="142"/>
+      <c r="N125" s="142"/>
+      <c r="O125" s="142"/>
+      <c r="P125" s="142"/>
+      <c r="Q125" s="142"/>
+      <c r="R125" s="142"/>
+      <c r="S125" s="142"/>
+      <c r="T125" s="142"/>
+      <c r="U125" s="142"/>
+      <c r="V125" s="142"/>
+      <c r="W125" s="142"/>
+      <c r="X125" s="142"/>
+      <c r="Y125" s="142"/>
+      <c r="Z125" s="142"/>
+      <c r="AA125" s="142"/>
+      <c r="AB125" s="142"/>
+      <c r="AC125" s="142"/>
+      <c r="AD125" s="142"/>
+      <c r="AE125" s="142"/>
+      <c r="AF125" s="142"/>
+      <c r="AG125" s="142"/>
+      <c r="AH125" s="142"/>
+      <c r="AI125" s="142"/>
+    </row>
+    <row r="126" spans="2:35" s="137" customFormat="1" ht="16">
+      <c r="B126" s="138"/>
+      <c r="C126" s="142"/>
+      <c r="D126" s="142"/>
+      <c r="E126" s="142"/>
+      <c r="F126" s="142"/>
+      <c r="G126" s="142"/>
+      <c r="H126" s="142"/>
+      <c r="I126" s="142"/>
+      <c r="J126" s="142"/>
+      <c r="K126" s="142"/>
+      <c r="L126" s="142"/>
+      <c r="M126" s="142"/>
+      <c r="N126" s="142"/>
+      <c r="O126" s="142"/>
+      <c r="P126" s="142"/>
+      <c r="Q126" s="142"/>
+      <c r="R126" s="142"/>
+      <c r="S126" s="142"/>
+      <c r="T126" s="142"/>
+      <c r="U126" s="142"/>
+      <c r="V126" s="142"/>
+      <c r="W126" s="142"/>
+      <c r="X126" s="142"/>
+      <c r="Y126" s="142"/>
+      <c r="Z126" s="142"/>
+      <c r="AA126" s="142"/>
+      <c r="AB126" s="142"/>
+      <c r="AC126" s="142"/>
+      <c r="AD126" s="142"/>
+      <c r="AE126" s="142"/>
+      <c r="AF126" s="142"/>
+      <c r="AG126" s="142"/>
+      <c r="AH126" s="142"/>
+      <c r="AI126" s="142"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C47" r:id="rId1"/>

--- a/carriers_source_analyses/manure.carrier.xlsx
+++ b/carriers_source_analyses/manure.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="40880" yWindow="-7500" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -312,9 +320,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
   <si>
     <r>
@@ -390,6 +395,9 @@
   <si>
     <t>http://refman.et-model.com/publications/1710</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) </t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +409,7 @@
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,11 +611,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1537,24 +1540,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1582,11 +1590,6 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="338">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1930,80 +1933,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2170,7 +2108,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2283,12 +2221,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2297,6 +2236,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2629,33 +2569,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.25" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>88</v>
@@ -2664,7 +2604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -2673,7 +2613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -2682,17 +2622,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="76" t="s">
         <v>14</v>
@@ -2700,13 +2640,13 @@
       <c r="C9" s="77"/>
       <c r="D9" s="124"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="78"/>
       <c r="C10" s="79"/>
       <c r="D10" s="125"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="78" t="s">
         <v>15</v>
@@ -2716,7 +2656,7 @@
       </c>
       <c r="D11" s="125"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="78"/>
       <c r="C12" s="18" t="s">
@@ -2724,7 +2664,7 @@
       </c>
       <c r="D12" s="125"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="78"/>
       <c r="C13" s="81" t="s">
@@ -2732,7 +2672,7 @@
       </c>
       <c r="D13" s="125"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="78"/>
       <c r="C14" s="79" t="s">
@@ -2740,13 +2680,13 @@
       </c>
       <c r="D14" s="125"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="78"/>
       <c r="C15" s="79"/>
       <c r="D15" s="125"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="78" t="s">
         <v>20</v>
@@ -2756,7 +2696,7 @@
       </c>
       <c r="D16" s="125"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="78"/>
       <c r="C17" s="83" t="s">
@@ -2764,7 +2704,7 @@
       </c>
       <c r="D17" s="125"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="78"/>
       <c r="C18" s="84" t="s">
@@ -2772,7 +2712,7 @@
       </c>
       <c r="D18" s="125"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="78"/>
       <c r="C19" s="85" t="s">
@@ -2780,7 +2720,7 @@
       </c>
       <c r="D19" s="125"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="86"/>
       <c r="C20" s="87" t="s">
@@ -2788,7 +2728,7 @@
       </c>
       <c r="D20" s="125"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="86"/>
       <c r="C21" s="88" t="s">
@@ -2796,7 +2736,7 @@
       </c>
       <c r="D21" s="125"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="86"/>
       <c r="C22" s="89" t="s">
@@ -2804,14 +2744,14 @@
       </c>
       <c r="D22" s="125"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="86"/>
       <c r="C23" s="90" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="125"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="126"/>
       <c r="C24" s="127"/>
       <c r="D24" s="128"/>
@@ -2819,74 +2759,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="154" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="162"/>
+    <row r="4" spans="2:10" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2897,7 +2834,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="91"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -2918,7 +2855,7 @@
       </c>
       <c r="J7" s="93"/>
     </row>
-    <row r="8" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -2929,7 +2866,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
         <v>89</v>
@@ -2942,7 +2879,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="98" t="s">
         <v>36</v>
@@ -2964,7 +2901,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="104" t="s">
         <v>37</v>
@@ -2984,7 +2921,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="104" t="s">
         <v>86</v>
@@ -3004,7 +2941,7 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="34" t="s">
         <v>38</v>
@@ -3026,10 +2963,10 @@
       </c>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="130" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>44</v>
@@ -3040,15 +2977,15 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="132" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="165" t="s">
-        <v>94</v>
+      <c r="I14" s="156" t="s">
+        <v>93</v>
       </c>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -3065,43 +3002,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3116,30 +3016,29 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="66" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="66" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="66" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="66" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="66" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="66" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="66" customWidth="1"/>
     <col min="18" max="18" width="60" style="65" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="65"/>
+    <col min="19" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -3158,7 +3057,7 @@
       <c r="Q2" s="69"/>
       <c r="R2" s="70"/>
     </row>
-    <row r="3" spans="2:18" s="24" customFormat="1">
+    <row r="3" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="97" t="s">
         <v>29</v>
@@ -3188,14 +3087,14 @@
         <v>51</v>
       </c>
       <c r="P3" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="63"/>
       <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -3214,7 +3113,7 @@
       <c r="Q4" s="96"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="71"/>
       <c r="C5" s="18" t="s">
         <v>49</v>
@@ -3235,7 +3134,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="107" t="s">
         <v>36</v>
@@ -3264,7 +3163,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="108" t="s">
         <v>37</v>
@@ -3294,7 +3193,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="112"/>
     </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="108" t="s">
         <v>86</v>
@@ -3329,7 +3228,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="109" t="s">
         <v>38</v>
@@ -3358,10 +3257,10 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="109" t="s">
         <v>38</v>
@@ -3384,14 +3283,14 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="163">
+      <c r="P10" s="154">
         <f>Notes!G115</f>
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="71"/>
       <c r="C11" s="109" t="s">
         <v>39</v>
@@ -3421,11 +3320,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3440,23 +3334,23 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="45"/>
+    <col min="7" max="7" width="10.28515625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1"/>
-    <row r="2" spans="1:12">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3469,7 +3363,7 @@
       <c r="K2" s="49"/>
       <c r="L2" s="48"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>10</v>
@@ -3484,7 +3378,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3497,7 +3391,7 @@
       <c r="K4" s="54"/>
       <c r="L4" s="53"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>12</v>
@@ -3526,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -3539,7 +3433,7 @@
       <c r="K6" s="52"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="1:12" ht="16">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="117" t="s">
         <v>86</v>
@@ -3566,31 +3460,31 @@
       </c>
       <c r="L7" s="115"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="148"/>
       <c r="B8" s="149"/>
       <c r="C8" s="139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="150"/>
       <c r="E8" s="139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="139"/>
       <c r="G8" s="148" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="151" t="s">
         <v>100</v>
-      </c>
-      <c r="H8" s="151" t="s">
-        <v>101</v>
       </c>
       <c r="I8" s="151"/>
       <c r="J8" s="151"/>
-      <c r="K8" s="164" t="s">
-        <v>102</v>
+      <c r="K8" s="155" t="s">
+        <v>101</v>
       </c>
       <c r="L8" s="152"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="117"/>
       <c r="D9" s="59"/>
@@ -3602,7 +3496,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="64"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="117"/>
       <c r="D10" s="59"/>
@@ -3615,7 +3509,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="1:12" ht="16">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="117"/>
       <c r="D11" s="62"/>
@@ -3631,11 +3525,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3647,19 +3536,19 @@
       <selection activeCell="A81" sqref="A81:XFD126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="99" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="99" customWidth="1"/>
     <col min="2" max="2" width="5" style="99" customWidth="1"/>
     <col min="3" max="5" width="7" style="99"/>
-    <col min="6" max="6" width="10.875" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="99" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="99"/>
-    <col min="8" max="8" width="8.875" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="99" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1"/>
-    <row r="2" spans="2:21" s="24" customFormat="1">
+    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="102"/>
       <c r="C2" s="103" t="s">
         <v>24</v>
@@ -3687,7 +3576,7 @@
       <c r="T2" s="103"/>
       <c r="U2" s="103"/>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="100"/>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
@@ -3709,7 +3598,7 @@
       <c r="T3" s="101"/>
       <c r="U3" s="101"/>
     </row>
-    <row r="4" spans="2:21" customFormat="1" ht="16">
+    <row r="4" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="100"/>
       <c r="C4" s="110" t="s">
         <v>55</v>
@@ -3733,7 +3622,7 @@
       <c r="R4" s="110"/>
       <c r="S4" s="110"/>
     </row>
-    <row r="5" spans="2:21" customFormat="1" ht="16">
+    <row r="5" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="100"/>
       <c r="C5" s="110"/>
       <c r="D5" s="110"/>
@@ -3753,7 +3642,7 @@
       <c r="R5" s="110"/>
       <c r="S5" s="110"/>
     </row>
-    <row r="6" spans="2:21" customFormat="1" ht="16">
+    <row r="6" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="100"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110" t="s">
@@ -3779,7 +3668,7 @@
       <c r="T6" s="110"/>
       <c r="U6" s="110"/>
     </row>
-    <row r="7" spans="2:21" customFormat="1" ht="16">
+    <row r="7" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="100"/>
       <c r="C7" s="110"/>
       <c r="D7" s="110"/>
@@ -3801,7 +3690,7 @@
       <c r="T7" s="110"/>
       <c r="U7" s="110"/>
     </row>
-    <row r="8" spans="2:21" customFormat="1" ht="16">
+    <row r="8" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="100"/>
       <c r="C8" s="110"/>
       <c r="D8" s="110"/>
@@ -3822,7 +3711,7 @@
       <c r="T8" s="110"/>
       <c r="U8" s="110"/>
     </row>
-    <row r="9" spans="2:21" customFormat="1" ht="16">
+    <row r="9" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="100"/>
       <c r="C9" s="110"/>
       <c r="D9" s="110"/>
@@ -3844,7 +3733,7 @@
       <c r="T9" s="110"/>
       <c r="U9" s="110"/>
     </row>
-    <row r="10" spans="2:21" customFormat="1" ht="16">
+    <row r="10" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="100"/>
       <c r="C10" s="110"/>
       <c r="D10" s="110"/>
@@ -3864,7 +3753,7 @@
       <c r="T10" s="110"/>
       <c r="U10" s="110"/>
     </row>
-    <row r="11" spans="2:21" customFormat="1" ht="16">
+    <row r="11" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="100"/>
       <c r="C11" s="110"/>
       <c r="D11" s="110"/>
@@ -3888,7 +3777,7 @@
       <c r="T11" s="110"/>
       <c r="U11" s="110"/>
     </row>
-    <row r="12" spans="2:21" customFormat="1" ht="16">
+    <row r="12" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="100"/>
       <c r="C12" s="110"/>
       <c r="D12" s="110"/>
@@ -3914,7 +3803,7 @@
       <c r="T12" s="110"/>
       <c r="U12" s="110"/>
     </row>
-    <row r="13" spans="2:21" customFormat="1" ht="16">
+    <row r="13" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="100"/>
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
@@ -3942,7 +3831,7 @@
       <c r="T13" s="110"/>
       <c r="U13" s="110"/>
     </row>
-    <row r="14" spans="2:21" customFormat="1" ht="16">
+    <row r="14" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="100"/>
       <c r="C14" s="110"/>
       <c r="D14" s="110"/>
@@ -3970,7 +3859,7 @@
       <c r="T14" s="110"/>
       <c r="U14" s="110"/>
     </row>
-    <row r="15" spans="2:21" customFormat="1" ht="16">
+    <row r="15" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="100"/>
       <c r="C15" s="110"/>
       <c r="D15" s="110"/>
@@ -3998,7 +3887,7 @@
       <c r="T15" s="110"/>
       <c r="U15" s="110"/>
     </row>
-    <row r="16" spans="2:21" customFormat="1" ht="16">
+    <row r="16" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="100"/>
       <c r="C16" s="110"/>
       <c r="D16" s="110"/>
@@ -4025,7 +3914,7 @@
       <c r="T16" s="110"/>
       <c r="U16" s="110"/>
     </row>
-    <row r="17" spans="2:21" customFormat="1" ht="16">
+    <row r="17" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="100"/>
       <c r="C17" s="110"/>
       <c r="D17" s="110"/>
@@ -4053,7 +3942,7 @@
       <c r="T17" s="110"/>
       <c r="U17" s="110"/>
     </row>
-    <row r="18" spans="2:21" customFormat="1" ht="16">
+    <row r="18" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="100"/>
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
@@ -4081,7 +3970,7 @@
       <c r="T18" s="110"/>
       <c r="U18" s="110"/>
     </row>
-    <row r="19" spans="2:21" customFormat="1" ht="16">
+    <row r="19" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="100"/>
       <c r="C19" s="110"/>
       <c r="D19" s="110"/>
@@ -4099,7 +3988,7 @@
       <c r="T19" s="110"/>
       <c r="U19" s="110"/>
     </row>
-    <row r="20" spans="2:21" customFormat="1" ht="16">
+    <row r="20" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="100"/>
       <c r="C20" s="110"/>
       <c r="D20" s="110"/>
@@ -4117,7 +4006,7 @@
       <c r="T20" s="110"/>
       <c r="U20" s="110"/>
     </row>
-    <row r="21" spans="2:21" customFormat="1" ht="16">
+    <row r="21" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="100"/>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
@@ -4135,7 +4024,7 @@
       <c r="T21" s="110"/>
       <c r="U21" s="110"/>
     </row>
-    <row r="22" spans="2:21" customFormat="1" ht="16">
+    <row r="22" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="100"/>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
@@ -4159,7 +4048,7 @@
       <c r="T22" s="110"/>
       <c r="U22" s="110"/>
     </row>
-    <row r="23" spans="2:21" customFormat="1" ht="16">
+    <row r="23" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="100"/>
       <c r="C23" s="110"/>
       <c r="D23" s="110"/>
@@ -4187,7 +4076,7 @@
       <c r="T23" s="110"/>
       <c r="U23" s="110"/>
     </row>
-    <row r="24" spans="2:21" customFormat="1" ht="16">
+    <row r="24" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="100"/>
       <c r="C24" s="110"/>
       <c r="D24" s="110"/>
@@ -4215,7 +4104,7 @@
       <c r="T24" s="110"/>
       <c r="U24" s="110"/>
     </row>
-    <row r="25" spans="2:21" customFormat="1" ht="16">
+    <row r="25" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="100"/>
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
@@ -4243,7 +4132,7 @@
       <c r="T25" s="110"/>
       <c r="U25" s="110"/>
     </row>
-    <row r="26" spans="2:21" customFormat="1" ht="16">
+    <row r="26" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="100"/>
       <c r="C26" s="110"/>
       <c r="D26" s="110"/>
@@ -4271,7 +4160,7 @@
       <c r="T26" s="110"/>
       <c r="U26" s="110"/>
     </row>
-    <row r="27" spans="2:21" customFormat="1" ht="16">
+    <row r="27" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="100"/>
       <c r="C27" s="110"/>
       <c r="D27" s="110"/>
@@ -4298,7 +4187,7 @@
       <c r="T27" s="110"/>
       <c r="U27" s="110"/>
     </row>
-    <row r="28" spans="2:21" customFormat="1" ht="16">
+    <row r="28" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="100"/>
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
@@ -4326,7 +4215,7 @@
       <c r="T28" s="110"/>
       <c r="U28" s="110"/>
     </row>
-    <row r="29" spans="2:21" customFormat="1" ht="16">
+    <row r="29" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="100"/>
       <c r="C29" s="110"/>
       <c r="D29" s="110"/>
@@ -4354,7 +4243,7 @@
       <c r="T29" s="110"/>
       <c r="U29" s="110"/>
     </row>
-    <row r="30" spans="2:21" customFormat="1" ht="16">
+    <row r="30" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="100"/>
       <c r="C30" s="110"/>
       <c r="D30" s="110"/>
@@ -4376,7 +4265,7 @@
       <c r="T30" s="110"/>
       <c r="U30" s="110"/>
     </row>
-    <row r="31" spans="2:21" customFormat="1" ht="16">
+    <row r="31" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="100"/>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
@@ -4400,7 +4289,7 @@
       <c r="T31" s="110"/>
       <c r="U31" s="110"/>
     </row>
-    <row r="32" spans="2:21" customFormat="1" ht="16">
+    <row r="32" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="100"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
@@ -4429,7 +4318,7 @@
       <c r="T32" s="110"/>
       <c r="U32" s="110"/>
     </row>
-    <row r="33" spans="2:25" customFormat="1" ht="16">
+    <row r="33" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="100"/>
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
@@ -4451,7 +4340,7 @@
       <c r="T33" s="110"/>
       <c r="U33" s="110"/>
     </row>
-    <row r="34" spans="2:25" customFormat="1" ht="16">
+    <row r="34" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="100"/>
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
@@ -4475,7 +4364,7 @@
       <c r="T34" s="110"/>
       <c r="U34" s="110"/>
     </row>
-    <row r="35" spans="2:25" customFormat="1" ht="16">
+    <row r="35" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="100"/>
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
@@ -4504,7 +4393,7 @@
       <c r="T35" s="110"/>
       <c r="U35" s="110"/>
     </row>
-    <row r="36" spans="2:25" customFormat="1" ht="16">
+    <row r="36" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="100"/>
       <c r="C36" s="110"/>
       <c r="D36" s="110"/>
@@ -4533,7 +4422,7 @@
       <c r="T36" s="110"/>
       <c r="U36" s="110"/>
     </row>
-    <row r="37" spans="2:25" customFormat="1" ht="16">
+    <row r="37" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="100"/>
       <c r="C37" s="110"/>
       <c r="D37" s="110"/>
@@ -4555,7 +4444,7 @@
       <c r="T37" s="110"/>
       <c r="U37" s="110"/>
     </row>
-    <row r="38" spans="2:25" customFormat="1" ht="16">
+    <row r="38" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="100"/>
       <c r="C38" s="110"/>
       <c r="D38" s="110"/>
@@ -4577,7 +4466,7 @@
       <c r="T38" s="110"/>
       <c r="U38" s="110"/>
     </row>
-    <row r="39" spans="2:25" customFormat="1" ht="16">
+    <row r="39" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="100"/>
       <c r="C39" s="110"/>
       <c r="D39" s="110"/>
@@ -4599,7 +4488,7 @@
       <c r="T39" s="110"/>
       <c r="U39" s="110"/>
     </row>
-    <row r="40" spans="2:25" customFormat="1" ht="16">
+    <row r="40" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="100"/>
       <c r="C40" s="110"/>
       <c r="D40" s="110"/>
@@ -4621,7 +4510,7 @@
       <c r="T40" s="110"/>
       <c r="U40" s="110"/>
     </row>
-    <row r="41" spans="2:25" customFormat="1" ht="16">
+    <row r="41" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="100"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110"/>
@@ -4643,7 +4532,7 @@
       <c r="T41" s="110"/>
       <c r="U41" s="110"/>
     </row>
-    <row r="42" spans="2:25" customFormat="1" ht="16">
+    <row r="42" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="100"/>
       <c r="C42" s="110"/>
       <c r="D42" s="110"/>
@@ -4665,7 +4554,7 @@
       <c r="T42" s="110"/>
       <c r="U42" s="110"/>
     </row>
-    <row r="43" spans="2:25" customFormat="1" ht="16">
+    <row r="43" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="100"/>
       <c r="C43" s="110"/>
       <c r="D43" s="110"/>
@@ -4687,7 +4576,7 @@
       <c r="T43" s="110"/>
       <c r="U43" s="110"/>
     </row>
-    <row r="44" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="44" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="100"/>
       <c r="C44" s="110"/>
       <c r="D44" s="110"/>
@@ -4709,7 +4598,7 @@
       <c r="T44" s="110"/>
       <c r="U44" s="110"/>
     </row>
-    <row r="45" spans="2:25" s="24" customFormat="1">
+    <row r="45" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="103"/>
       <c r="C45" s="103" t="s">
         <v>24</v>
@@ -4737,7 +4626,7 @@
       <c r="T45" s="103"/>
       <c r="U45" s="103"/>
     </row>
-    <row r="46" spans="2:25" customFormat="1" ht="16">
+    <row r="46" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="100"/>
       <c r="C46" s="110"/>
       <c r="D46" s="110"/>
@@ -4763,7 +4652,7 @@
       <c r="X46" s="110"/>
       <c r="Y46" s="110"/>
     </row>
-    <row r="47" spans="2:25" customFormat="1" ht="16">
+    <row r="47" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="100"/>
       <c r="C47" s="115" t="s">
         <v>76</v>
@@ -4786,7 +4675,7 @@
       <c r="S47" s="110"/>
       <c r="T47" s="110"/>
     </row>
-    <row r="48" spans="2:25" customFormat="1" ht="16">
+    <row r="48" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="100"/>
       <c r="C48" s="110"/>
       <c r="D48" s="110"/>
@@ -4808,7 +4697,7 @@
       <c r="T48" s="110"/>
       <c r="U48" s="110"/>
     </row>
-    <row r="49" spans="2:21" customFormat="1" ht="16">
+    <row r="49" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="100"/>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
@@ -4836,7 +4725,7 @@
       <c r="T49" s="110"/>
       <c r="U49" s="110"/>
     </row>
-    <row r="50" spans="2:21" customFormat="1" ht="16">
+    <row r="50" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="100"/>
       <c r="C50" s="110"/>
       <c r="D50" s="110"/>
@@ -4865,7 +4754,7 @@
       <c r="T50" s="110"/>
       <c r="U50" s="110"/>
     </row>
-    <row r="51" spans="2:21" customFormat="1" ht="16">
+    <row r="51" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="100"/>
       <c r="C51" s="110"/>
       <c r="D51" s="110"/>
@@ -4887,7 +4776,7 @@
       <c r="T51" s="110"/>
       <c r="U51" s="110"/>
     </row>
-    <row r="52" spans="2:21" customFormat="1" ht="16">
+    <row r="52" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="100"/>
       <c r="C52" s="110"/>
       <c r="D52" s="110"/>
@@ -4909,7 +4798,7 @@
       <c r="T52" s="110"/>
       <c r="U52" s="110"/>
     </row>
-    <row r="53" spans="2:21" customFormat="1" ht="16">
+    <row r="53" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="100"/>
       <c r="C53" s="110"/>
       <c r="D53" s="110"/>
@@ -4931,7 +4820,7 @@
       <c r="T53" s="110"/>
       <c r="U53" s="110"/>
     </row>
-    <row r="54" spans="2:21" customFormat="1" ht="16">
+    <row r="54" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="100"/>
       <c r="C54" s="110"/>
       <c r="D54" s="110"/>
@@ -4953,7 +4842,7 @@
       <c r="T54" s="110"/>
       <c r="U54" s="110"/>
     </row>
-    <row r="55" spans="2:21" customFormat="1" ht="16">
+    <row r="55" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="100"/>
       <c r="C55" s="110"/>
       <c r="D55" s="110"/>
@@ -4975,7 +4864,7 @@
       <c r="T55" s="110"/>
       <c r="U55" s="110"/>
     </row>
-    <row r="56" spans="2:21" customFormat="1" ht="16">
+    <row r="56" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="100"/>
       <c r="C56" s="110"/>
       <c r="D56" s="110"/>
@@ -4997,7 +4886,7 @@
       <c r="T56" s="110"/>
       <c r="U56" s="110"/>
     </row>
-    <row r="57" spans="2:21" customFormat="1" ht="16">
+    <row r="57" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="100"/>
       <c r="C57" s="110"/>
       <c r="D57" s="110"/>
@@ -5019,7 +4908,7 @@
       <c r="T57" s="110"/>
       <c r="U57" s="110"/>
     </row>
-    <row r="58" spans="2:21" customFormat="1" ht="16">
+    <row r="58" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="100"/>
       <c r="C58" s="110"/>
       <c r="D58" s="110"/>
@@ -5041,7 +4930,7 @@
       <c r="T58" s="110"/>
       <c r="U58" s="110"/>
     </row>
-    <row r="59" spans="2:21" customFormat="1" ht="16">
+    <row r="59" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="100"/>
       <c r="C59" s="110"/>
       <c r="D59" s="110"/>
@@ -5063,7 +4952,7 @@
       <c r="T59" s="110"/>
       <c r="U59" s="110"/>
     </row>
-    <row r="60" spans="2:21" customFormat="1" ht="16">
+    <row r="60" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="100"/>
       <c r="C60" s="110"/>
       <c r="D60" s="110"/>
@@ -5085,7 +4974,7 @@
       <c r="T60" s="110"/>
       <c r="U60" s="110"/>
     </row>
-    <row r="61" spans="2:21" customFormat="1" ht="16">
+    <row r="61" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="100"/>
       <c r="C61" s="110"/>
       <c r="D61" s="110"/>
@@ -5107,7 +4996,7 @@
       <c r="T61" s="110"/>
       <c r="U61" s="110"/>
     </row>
-    <row r="62" spans="2:21" customFormat="1" ht="16">
+    <row r="62" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="100"/>
       <c r="C62" s="110"/>
       <c r="D62" s="110"/>
@@ -5129,7 +5018,7 @@
       <c r="T62" s="110"/>
       <c r="U62" s="110"/>
     </row>
-    <row r="63" spans="2:21" customFormat="1" ht="16">
+    <row r="63" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="100"/>
       <c r="C63" s="110"/>
       <c r="D63" s="110"/>
@@ -5151,7 +5040,7 @@
       <c r="T63" s="110"/>
       <c r="U63" s="110"/>
     </row>
-    <row r="64" spans="2:21" customFormat="1" ht="16">
+    <row r="64" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="100"/>
       <c r="C64" s="110"/>
       <c r="D64" s="110"/>
@@ -5173,7 +5062,7 @@
       <c r="T64" s="110"/>
       <c r="U64" s="110"/>
     </row>
-    <row r="65" spans="2:21" customFormat="1" ht="16">
+    <row r="65" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="100"/>
       <c r="C65" s="110"/>
       <c r="D65" s="110"/>
@@ -5195,7 +5084,7 @@
       <c r="T65" s="110"/>
       <c r="U65" s="110"/>
     </row>
-    <row r="66" spans="2:21" customFormat="1" ht="16">
+    <row r="66" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="100"/>
       <c r="C66" s="110"/>
       <c r="D66" s="110"/>
@@ -5217,7 +5106,7 @@
       <c r="T66" s="110"/>
       <c r="U66" s="110"/>
     </row>
-    <row r="67" spans="2:21" customFormat="1" ht="16">
+    <row r="67" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="100"/>
       <c r="C67" s="110"/>
       <c r="D67" s="110"/>
@@ -5239,7 +5128,7 @@
       <c r="T67" s="110"/>
       <c r="U67" s="110"/>
     </row>
-    <row r="68" spans="2:21" customFormat="1" ht="16">
+    <row r="68" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="100"/>
       <c r="C68" s="110"/>
       <c r="D68" s="110"/>
@@ -5261,7 +5150,7 @@
       <c r="T68" s="110"/>
       <c r="U68" s="110"/>
     </row>
-    <row r="69" spans="2:21" customFormat="1" ht="16">
+    <row r="69" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="100"/>
       <c r="C69" s="110"/>
       <c r="D69" s="110"/>
@@ -5283,7 +5172,7 @@
       <c r="T69" s="110"/>
       <c r="U69" s="110"/>
     </row>
-    <row r="70" spans="2:21" customFormat="1" ht="16">
+    <row r="70" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="100"/>
       <c r="C70" s="110"/>
       <c r="D70" s="110"/>
@@ -5305,7 +5194,7 @@
       <c r="T70" s="110"/>
       <c r="U70" s="110"/>
     </row>
-    <row r="71" spans="2:21" customFormat="1" ht="16">
+    <row r="71" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="100"/>
       <c r="C71" s="110"/>
       <c r="D71" s="110"/>
@@ -5327,7 +5216,7 @@
       <c r="T71" s="110"/>
       <c r="U71" s="110"/>
     </row>
-    <row r="72" spans="2:21" customFormat="1" ht="16">
+    <row r="72" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="100"/>
       <c r="C72" s="110"/>
       <c r="D72" s="110"/>
@@ -5349,7 +5238,7 @@
       <c r="T72" s="110"/>
       <c r="U72" s="110"/>
     </row>
-    <row r="73" spans="2:21" customFormat="1" ht="16">
+    <row r="73" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="100"/>
       <c r="C73" s="110"/>
       <c r="D73" s="110"/>
@@ -5371,7 +5260,7 @@
       <c r="T73" s="110"/>
       <c r="U73" s="110"/>
     </row>
-    <row r="74" spans="2:21" customFormat="1" ht="16">
+    <row r="74" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="100"/>
       <c r="C74" s="110"/>
       <c r="D74" s="110"/>
@@ -5393,7 +5282,7 @@
       <c r="T74" s="110"/>
       <c r="U74" s="110"/>
     </row>
-    <row r="75" spans="2:21" customFormat="1" ht="16">
+    <row r="75" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="100"/>
       <c r="C75" s="110"/>
       <c r="D75" s="110"/>
@@ -5415,7 +5304,7 @@
       <c r="T75" s="110"/>
       <c r="U75" s="110"/>
     </row>
-    <row r="76" spans="2:21" customFormat="1" ht="16">
+    <row r="76" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="100"/>
       <c r="C76" s="110"/>
       <c r="D76" s="110"/>
@@ -5437,7 +5326,7 @@
       <c r="T76" s="110"/>
       <c r="U76" s="110"/>
     </row>
-    <row r="77" spans="2:21" customFormat="1" ht="16">
+    <row r="77" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="100"/>
       <c r="C77" s="110"/>
       <c r="D77" s="110"/>
@@ -5459,7 +5348,7 @@
       <c r="T77" s="110"/>
       <c r="U77" s="110"/>
     </row>
-    <row r="78" spans="2:21" customFormat="1" ht="16">
+    <row r="78" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="100"/>
       <c r="C78" s="110"/>
       <c r="D78" s="110"/>
@@ -5481,7 +5370,7 @@
       <c r="T78" s="110"/>
       <c r="U78" s="110"/>
     </row>
-    <row r="79" spans="2:21" customFormat="1" ht="16">
+    <row r="79" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="100"/>
       <c r="C79" s="110"/>
       <c r="D79" s="110"/>
@@ -5503,7 +5392,7 @@
       <c r="T79" s="110"/>
       <c r="U79" s="110"/>
     </row>
-    <row r="80" spans="2:21" customFormat="1" ht="17" thickBot="1">
+    <row r="80" spans="2:21" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="100"/>
       <c r="C80" s="110"/>
       <c r="D80" s="110"/>
@@ -5525,7 +5414,7 @@
       <c r="T80" s="110"/>
       <c r="U80" s="110"/>
     </row>
-    <row r="81" spans="2:35" s="137" customFormat="1">
+    <row r="81" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="134"/>
       <c r="C81" s="135" t="s">
         <v>24</v>
@@ -5567,7 +5456,7 @@
       <c r="AH81" s="136"/>
       <c r="AI81" s="136"/>
     </row>
-    <row r="82" spans="2:35" s="137" customFormat="1">
+    <row r="82" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="138"/>
       <c r="C82" s="139"/>
       <c r="D82" s="139"/>
@@ -5603,10 +5492,10 @@
       <c r="AH82" s="139"/>
       <c r="AI82" s="139"/>
     </row>
-    <row r="83" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="83" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="138"/>
       <c r="C83" s="140" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D83" s="141"/>
       <c r="E83" s="141"/>
@@ -5641,7 +5530,7 @@
       <c r="AH83" s="142"/>
       <c r="AI83" s="142"/>
     </row>
-    <row r="84" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="84" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="138"/>
       <c r="C84" s="141"/>
       <c r="D84" s="141"/>
@@ -5677,7 +5566,7 @@
       <c r="AH84" s="142"/>
       <c r="AI84" s="142"/>
     </row>
-    <row r="85" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="85" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="138"/>
       <c r="C85" s="141"/>
       <c r="D85" s="141"/>
@@ -5713,7 +5602,7 @@
       <c r="AH85" s="142"/>
       <c r="AI85" s="142"/>
     </row>
-    <row r="86" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="86" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="138"/>
       <c r="C86" s="143"/>
       <c r="D86" s="143"/>
@@ -5749,7 +5638,7 @@
       <c r="AH86" s="142"/>
       <c r="AI86" s="142"/>
     </row>
-    <row r="87" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="87" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="138"/>
       <c r="C87" s="143"/>
       <c r="D87" s="143"/>
@@ -5785,7 +5674,7 @@
       <c r="AH87" s="142"/>
       <c r="AI87" s="142"/>
     </row>
-    <row r="88" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="88" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="138"/>
       <c r="C88" s="143"/>
       <c r="D88" s="145"/>
@@ -5821,7 +5710,7 @@
       <c r="AH88" s="142"/>
       <c r="AI88" s="142"/>
     </row>
-    <row r="89" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="89" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="138"/>
       <c r="C89" s="143"/>
       <c r="D89" s="145"/>
@@ -5857,7 +5746,7 @@
       <c r="AH89" s="142"/>
       <c r="AI89" s="142"/>
     </row>
-    <row r="90" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="90" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="138"/>
       <c r="C90" s="143"/>
       <c r="D90" s="145"/>
@@ -5893,7 +5782,7 @@
       <c r="AH90" s="142"/>
       <c r="AI90" s="142"/>
     </row>
-    <row r="91" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="91" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="138"/>
       <c r="C91" s="144"/>
       <c r="D91" s="144"/>
@@ -5929,7 +5818,7 @@
       <c r="AH91" s="142"/>
       <c r="AI91" s="142"/>
     </row>
-    <row r="92" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="92" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="138"/>
       <c r="C92" s="144"/>
       <c r="D92" s="144"/>
@@ -5965,7 +5854,7 @@
       <c r="AH92" s="142"/>
       <c r="AI92" s="142"/>
     </row>
-    <row r="93" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="93" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="138"/>
       <c r="C93" s="144"/>
       <c r="D93" s="144"/>
@@ -6001,7 +5890,7 @@
       <c r="AH93" s="142"/>
       <c r="AI93" s="142"/>
     </row>
-    <row r="94" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="94" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="138"/>
       <c r="C94" s="144"/>
       <c r="D94" s="144"/>
@@ -6037,7 +5926,7 @@
       <c r="AH94" s="142"/>
       <c r="AI94" s="142"/>
     </row>
-    <row r="95" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="95" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="138"/>
       <c r="C95" s="144"/>
       <c r="D95" s="144"/>
@@ -6073,7 +5962,7 @@
       <c r="AH95" s="142"/>
       <c r="AI95" s="142"/>
     </row>
-    <row r="96" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="96" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="138"/>
       <c r="C96" s="144"/>
       <c r="D96" s="144"/>
@@ -6109,7 +5998,7 @@
       <c r="AH96" s="142"/>
       <c r="AI96" s="142"/>
     </row>
-    <row r="97" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="97" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="138"/>
       <c r="C97" s="144"/>
       <c r="D97" s="144"/>
@@ -6145,7 +6034,7 @@
       <c r="AH97" s="142"/>
       <c r="AI97" s="142"/>
     </row>
-    <row r="98" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="98" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="138"/>
       <c r="C98" s="144"/>
       <c r="D98" s="144"/>
@@ -6181,7 +6070,7 @@
       <c r="AH98" s="142"/>
       <c r="AI98" s="142"/>
     </row>
-    <row r="99" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="99" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="138"/>
       <c r="C99" s="144"/>
       <c r="D99" s="144"/>
@@ -6217,7 +6106,7 @@
       <c r="AH99" s="142"/>
       <c r="AI99" s="142"/>
     </row>
-    <row r="100" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="100" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="138"/>
       <c r="C100" s="144"/>
       <c r="D100" s="144"/>
@@ -6253,7 +6142,7 @@
       <c r="AH100" s="142"/>
       <c r="AI100" s="142"/>
     </row>
-    <row r="101" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="101" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="138"/>
       <c r="C101" s="144"/>
       <c r="D101" s="144"/>
@@ -6289,7 +6178,7 @@
       <c r="AH101" s="142"/>
       <c r="AI101" s="142"/>
     </row>
-    <row r="102" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="102" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="138"/>
       <c r="C102" s="144"/>
       <c r="D102" s="144"/>
@@ -6325,7 +6214,7 @@
       <c r="AH102" s="142"/>
       <c r="AI102" s="142"/>
     </row>
-    <row r="103" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="103" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="138"/>
       <c r="C103" s="144"/>
       <c r="D103" s="144"/>
@@ -6361,7 +6250,7 @@
       <c r="AH103" s="142"/>
       <c r="AI103" s="142"/>
     </row>
-    <row r="104" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="104" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="138"/>
       <c r="C104" s="144"/>
       <c r="D104" s="144"/>
@@ -6397,7 +6286,7 @@
       <c r="AH104" s="142"/>
       <c r="AI104" s="142"/>
     </row>
-    <row r="105" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="105" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="138"/>
       <c r="C105" s="144"/>
       <c r="D105" s="144"/>
@@ -6433,7 +6322,7 @@
       <c r="AH105" s="142"/>
       <c r="AI105" s="142"/>
     </row>
-    <row r="106" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="106" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="138"/>
       <c r="C106" s="144"/>
       <c r="D106" s="144"/>
@@ -6469,7 +6358,7 @@
       <c r="AH106" s="142"/>
       <c r="AI106" s="142"/>
     </row>
-    <row r="107" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="107" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="138"/>
       <c r="C107" s="144"/>
       <c r="D107" s="144"/>
@@ -6505,7 +6394,7 @@
       <c r="AH107" s="142"/>
       <c r="AI107" s="142"/>
     </row>
-    <row r="108" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="108" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="138"/>
       <c r="C108" s="146"/>
       <c r="D108" s="146"/>
@@ -6541,7 +6430,7 @@
       <c r="AH108" s="142"/>
       <c r="AI108" s="142"/>
     </row>
-    <row r="109" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="109" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="138"/>
       <c r="C109" s="146"/>
       <c r="D109" s="145"/>
@@ -6577,7 +6466,7 @@
       <c r="AH109" s="142"/>
       <c r="AI109" s="142"/>
     </row>
-    <row r="110" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="110" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="138"/>
       <c r="C110" s="146"/>
       <c r="D110" s="145"/>
@@ -6613,7 +6502,7 @@
       <c r="AH110" s="142"/>
       <c r="AI110" s="142"/>
     </row>
-    <row r="111" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="111" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="138"/>
       <c r="C111" s="146"/>
       <c r="D111" s="145"/>
@@ -6649,7 +6538,7 @@
       <c r="AH111" s="142"/>
       <c r="AI111" s="142"/>
     </row>
-    <row r="112" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="112" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="138"/>
       <c r="C112" s="146"/>
       <c r="D112" s="146"/>
@@ -6685,7 +6574,7 @@
       <c r="AH112" s="142"/>
       <c r="AI112" s="142"/>
     </row>
-    <row r="113" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="113" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="138"/>
       <c r="C113" s="142"/>
       <c r="D113" s="141">
@@ -6697,10 +6586,10 @@
         <v>54600</v>
       </c>
       <c r="H113" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="I113" s="141" t="s">
         <v>96</v>
-      </c>
-      <c r="I113" s="141" t="s">
-        <v>97</v>
       </c>
       <c r="J113" s="142"/>
       <c r="K113" s="142"/>
@@ -6729,7 +6618,7 @@
       <c r="AH113" s="142"/>
       <c r="AI113" s="142"/>
     </row>
-    <row r="114" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="114" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="138"/>
       <c r="C114" s="142"/>
       <c r="D114" s="141"/>
@@ -6739,7 +6628,7 @@
         <v>1000000</v>
       </c>
       <c r="H114" s="141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I114" s="142"/>
       <c r="J114" s="142"/>
@@ -6769,7 +6658,7 @@
       <c r="AH114" s="142"/>
       <c r="AI114" s="142"/>
     </row>
-    <row r="115" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="115" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="138"/>
       <c r="C115" s="142"/>
       <c r="D115" s="141"/>
@@ -6779,7 +6668,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="H115" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I115" s="142"/>
       <c r="J115" s="142"/>
@@ -6809,7 +6698,7 @@
       <c r="AH115" s="142"/>
       <c r="AI115" s="142"/>
     </row>
-    <row r="116" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="116" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="138"/>
       <c r="C116" s="142"/>
       <c r="D116" s="142"/>
@@ -6845,7 +6734,7 @@
       <c r="AH116" s="142"/>
       <c r="AI116" s="142"/>
     </row>
-    <row r="117" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="117" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="138"/>
       <c r="C117" s="142"/>
       <c r="D117" s="142"/>
@@ -6881,7 +6770,7 @@
       <c r="AH117" s="142"/>
       <c r="AI117" s="142"/>
     </row>
-    <row r="118" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="118" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="138"/>
       <c r="C118" s="142"/>
       <c r="D118" s="142"/>
@@ -6917,7 +6806,7 @@
       <c r="AH118" s="142"/>
       <c r="AI118" s="142"/>
     </row>
-    <row r="119" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="119" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="138"/>
       <c r="C119" s="142"/>
       <c r="D119" s="142"/>
@@ -6953,7 +6842,7 @@
       <c r="AH119" s="142"/>
       <c r="AI119" s="142"/>
     </row>
-    <row r="120" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="120" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="138"/>
       <c r="C120" s="142"/>
       <c r="D120" s="142"/>
@@ -6989,7 +6878,7 @@
       <c r="AH120" s="142"/>
       <c r="AI120" s="142"/>
     </row>
-    <row r="121" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="121" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="138"/>
       <c r="C121" s="142"/>
       <c r="D121" s="142"/>
@@ -7025,7 +6914,7 @@
       <c r="AH121" s="142"/>
       <c r="AI121" s="142"/>
     </row>
-    <row r="122" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="122" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="138"/>
       <c r="C122" s="142"/>
       <c r="D122" s="142"/>
@@ -7061,7 +6950,7 @@
       <c r="AH122" s="142"/>
       <c r="AI122" s="142"/>
     </row>
-    <row r="123" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="123" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="138"/>
       <c r="C123" s="142"/>
       <c r="D123" s="142"/>
@@ -7097,7 +6986,7 @@
       <c r="AH123" s="142"/>
       <c r="AI123" s="142"/>
     </row>
-    <row r="124" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="124" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="138"/>
       <c r="C124" s="142"/>
       <c r="D124" s="142"/>
@@ -7133,7 +7022,7 @@
       <c r="AH124" s="142"/>
       <c r="AI124" s="142"/>
     </row>
-    <row r="125" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="125" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="138"/>
       <c r="C125" s="142"/>
       <c r="D125" s="142"/>
@@ -7169,7 +7058,7 @@
       <c r="AH125" s="142"/>
       <c r="AI125" s="142"/>
     </row>
-    <row r="126" spans="2:35" s="137" customFormat="1" ht="16">
+    <row r="126" spans="2:35" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="138"/>
       <c r="C126" s="142"/>
       <c r="D126" s="142"/>
@@ -7212,10 +7101,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>